--- a/xlsx/SquarePlate.xlsx
+++ b/xlsx/SquarePlate.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6044048-61EF-44F0-9C65-7EBB65E9CAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913486C-7B6F-483B-810A-63DE6A363607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{08DF509F-1897-41AD-8809-58D4B22033D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{08DF509F-1897-41AD-8809-58D4B22033D1}"/>
   </bookViews>
   <sheets>
     <sheet name="quad4" sheetId="1" r:id="rId1"/>
-    <sheet name="tri3 " sheetId="2" r:id="rId2"/>
-    <sheet name="收敛率" sheetId="3" r:id="rId3"/>
+    <sheet name="quad8" sheetId="5" r:id="rId2"/>
+    <sheet name="tri3 " sheetId="2" r:id="rId3"/>
+    <sheet name="tri6" sheetId="4" r:id="rId4"/>
+    <sheet name="收敛率" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>16x16</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斜板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8x8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,7 +60,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quad</t>
+    <t>quad4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tri3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tri6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quad8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非均匀荷载简支方板厚度0.001  tri6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非均匀荷载简支方板厚度0.001  quad8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,15 +454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D1F080-91DC-42B9-9282-C84C7F08C713}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -448,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>42</v>
       </c>
@@ -489,7 +512,7 @@
         <v>-1.1096074786017269</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>49</v>
       </c>
@@ -527,7 +550,7 @@
         <v>-1.1263322264333586</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>56</v>
       </c>
@@ -565,7 +588,7 @@
         <v>-1.4472666131542307</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>64</v>
       </c>
@@ -603,7 +626,7 @@
         <v>-1.5121500777607624</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>72</v>
       </c>
@@ -641,7 +664,7 @@
         <v>-1.5730508250590476</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>81</v>
       </c>
@@ -679,7 +702,7 @@
         <v>-1.7376547660424408</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>90</v>
       </c>
@@ -717,7 +740,7 @@
         <v>-1.861557605498481</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>100</v>
       </c>
@@ -755,7 +778,7 @@
         <v>-1.9928587968049862</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>110</v>
       </c>
@@ -793,7 +816,7 @@
         <v>-1.9303011165904356</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>121</v>
       </c>
@@ -831,7 +854,7 @@
         <v>-1.8371517321228001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>132</v>
       </c>
@@ -869,7 +892,7 @@
         <v>-1.6257410109923032</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>144</v>
       </c>
@@ -907,7 +930,7 @@
         <v>-1.4933098703750294</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>169</v>
       </c>
@@ -945,7 +968,7 @@
         <v>-1.3951901497295787</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="D15">
         <v>361</v>
       </c>
@@ -974,7 +997,7 @@
         <v>-1.3857651169698697</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="D16">
         <v>400</v>
       </c>
@@ -1003,7 +1026,7 @@
         <v>-1.4288256510988664</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="D17">
         <v>441</v>
       </c>
@@ -1032,7 +1055,7 @@
         <v>-1.5051352454192939</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="D18">
         <v>484</v>
       </c>
@@ -1061,7 +1084,7 @@
         <v>-1.6118481955436204</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="D19">
         <v>529</v>
       </c>
@@ -1090,7 +1113,7 @@
         <v>-1.7634097054033595</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="D20">
         <v>576</v>
       </c>
@@ -1119,7 +1142,7 @@
         <v>-2.008759732474565</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="D21">
         <v>625</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>-2.0290883525648238</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="D22">
         <v>676</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>-1.87877118340927</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="G23">
         <v>2025</v>
       </c>
@@ -1197,7 +1220,7 @@
         <v>-1.6932133424580793</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="G24">
         <v>2116</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>-1.5434716233520527</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="G25">
         <v>2209</v>
       </c>
@@ -1237,7 +1260,7 @@
         <v>-1.4208519267031416</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26">
         <v>2304</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>-1.3071129222615006</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="G27">
         <v>2401</v>
       </c>
@@ -1277,7 +1300,7 @@
         <v>-1.2114651084854469</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="G28">
         <v>2500</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>-0.53569172937433485</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="G29">
         <v>2601</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>-3.9177762078968729E-3</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="J30">
         <v>5625</v>
       </c>
@@ -1328,7 +1351,7 @@
         <v>0.32176605447319384</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="J31">
         <v>5776</v>
       </c>
@@ -1339,7 +1362,7 @@
         <v>0.42301787861281226</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="J32">
         <v>5929</v>
       </c>
@@ -1350,7 +1373,7 @@
         <v>0.66306292469190342</v>
       </c>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="J33">
         <v>6084</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>0.78215043077946511</v>
       </c>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="J34">
         <v>6241</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>0.80459607595681282</v>
       </c>
     </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="J35">
         <v>6400</v>
       </c>
@@ -1383,7 +1406,7 @@
         <v>0.82735588407034955</v>
       </c>
     </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="J36">
         <v>6561</v>
       </c>
@@ -1394,7 +1417,7 @@
         <v>0.9454408666036056</v>
       </c>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="J37">
         <v>6724</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>0.7422132401733933</v>
       </c>
     </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="J38">
         <v>6889</v>
       </c>
@@ -1416,7 +1439,7 @@
         <v>0.60974243258358418</v>
       </c>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="J39">
         <v>7056</v>
       </c>
@@ -1427,7 +1450,7 @@
         <v>0.60688787620922213</v>
       </c>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="J40">
         <v>7225</v>
       </c>
@@ -1438,7 +1461,7 @@
         <v>0.82711073628117093</v>
       </c>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="J41">
         <v>7396</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>1.10557007236683</v>
       </c>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="J42">
         <v>7569</v>
       </c>
@@ -1460,7 +1483,7 @@
         <v>1.3181851408465661</v>
       </c>
     </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="J43">
         <v>7744</v>
       </c>
@@ -1471,7 +1494,7 @@
         <v>1.4392963927506406</v>
       </c>
     </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="J44">
         <v>7921</v>
       </c>
@@ -1482,7 +1505,7 @@
         <v>1.568967665842665</v>
       </c>
     </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="J45">
         <v>8100</v>
       </c>
@@ -1493,7 +1516,7 @@
         <v>1.6760162404070993</v>
       </c>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="J46">
         <v>8281</v>
       </c>
@@ -1512,18 +1535,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E46D136-4DED-41EF-B358-503D583E9178}">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC3BC72-637F-4E23-B836-B75E3E560FA2}">
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s" s="1">
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1537,1209 +1560,945 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>31.069881776188364</v>
+        <v>16.332818821670049</v>
       </c>
       <c r="C3">
-        <v>15.167139229807235</v>
+        <v>2.2352258933333875</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>341</v>
       </c>
       <c r="E3">
-        <v>10.571132401659247</v>
+        <v>13.147558647954666</v>
       </c>
       <c r="F3">
-        <v>4.6124098341663862</v>
+        <v>3.4530850670791353</v>
       </c>
       <c r="G3">
-        <v>529</v>
+        <v>1281</v>
       </c>
       <c r="H3">
-        <v>5.7947422871256347</v>
+        <v>30.292322310363268</v>
       </c>
       <c r="I3">
-        <v>1.3236630118353834</v>
-      </c>
-      <c r="J3">
-        <v>2025</v>
-      </c>
-      <c r="K3">
-        <v>21.703801734939514</v>
-      </c>
-      <c r="L3">
-        <v>10.494826539482068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.3993983088877462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>5.4725168364633845</v>
+        <v>17.8897382078205</v>
       </c>
       <c r="C4">
-        <v>2.3250496155219991</v>
+        <v>6.9003453166385214</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="E4">
-        <v>3.9361542261981439</v>
+        <v>4.5577407977241382</v>
       </c>
       <c r="F4">
-        <v>0.48835137682441926</v>
+        <v>0.42765168787865493</v>
       </c>
       <c r="G4">
-        <v>576</v>
+        <v>1408</v>
       </c>
       <c r="H4">
-        <v>3.2524627427913284</v>
+        <v>21.121542585402572</v>
       </c>
       <c r="I4">
-        <v>-0.19524134804008811</v>
-      </c>
-      <c r="J4">
-        <v>2116</v>
-      </c>
-      <c r="K4">
-        <v>5.4994326196324064</v>
-      </c>
-      <c r="L4">
-        <v>0.797109453541054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.6069338328056109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>0.56346804379504145</v>
+        <v>13.811286938961857</v>
       </c>
       <c r="C5">
-        <v>0.84340096933020836</v>
+        <v>1.2887746680773873</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="E5">
-        <v>0.98433486032124351</v>
+        <v>0.46028025897150071</v>
       </c>
       <c r="F5">
-        <v>-0.35840339263638482</v>
+        <v>-0.85940461449330796</v>
       </c>
       <c r="G5">
-        <v>600</v>
+        <v>1541</v>
       </c>
       <c r="H5">
-        <v>1.1265530102715113</v>
+        <v>6.2300814899021075</v>
       </c>
       <c r="I5">
-        <v>-1.094223282467095</v>
-      </c>
-      <c r="J5">
-        <v>2209</v>
-      </c>
-      <c r="K5">
-        <v>4.1608690922239244</v>
-      </c>
-      <c r="L5">
-        <v>7.6468447066517703E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.35643324386356462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>0.63380802128452629</v>
+        <v>13.419246469754425</v>
       </c>
       <c r="C6">
-        <v>0.48517044066401133</v>
+        <v>2.8544935745287221</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>481</v>
       </c>
       <c r="E6">
-        <v>0.56920412739504578</v>
+        <v>-1.5339413808705464</v>
       </c>
       <c r="F6">
-        <v>-0.95837854318515447</v>
+        <v>-1.4156323443854972</v>
       </c>
       <c r="G6">
-        <v>625</v>
+        <v>1680</v>
       </c>
       <c r="H6">
-        <v>6.1615548899240716E-2</v>
+        <v>0.67294729722753488</v>
       </c>
       <c r="I6">
-        <v>-1.4620129780405624</v>
-      </c>
-      <c r="J6">
-        <v>2304</v>
-      </c>
-      <c r="K6">
-        <v>1.6810503383212292</v>
-      </c>
-      <c r="L6">
-        <v>-0.71353487893196543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-0.86028832727116411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B7">
-        <v>-0.94369219719600195</v>
+        <v>9.5128687583940312</v>
       </c>
       <c r="C7">
-        <v>0.56303728311127599</v>
+        <v>0.25464893255755755</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="E7">
-        <v>-1.509533687770882</v>
+        <v>-2.1778877035498532</v>
       </c>
       <c r="F7">
-        <v>-1.1136987978529009</v>
+        <v>-1.3860860734590885</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>1825</v>
       </c>
       <c r="H7">
-        <v>-0.83582632068618767</v>
+        <v>-0.23818738421423705</v>
       </c>
       <c r="I7">
-        <v>-1.7731902331387419</v>
-      </c>
-      <c r="J7">
-        <v>2401</v>
-      </c>
-      <c r="K7">
-        <v>-0.42150482449988341</v>
-      </c>
-      <c r="L7">
-        <v>-1.8652911573173159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-0.90570109934994358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B8">
-        <v>-0.9446476710811712</v>
+        <v>1.6035164999637044</v>
       </c>
       <c r="C8">
-        <v>0.71000196510157976</v>
+        <v>-0.22034348485682714</v>
       </c>
       <c r="D8">
-        <v>196</v>
+        <v>560</v>
       </c>
       <c r="E8">
-        <v>-1.4185200327076175</v>
+        <v>-2.4304004118688991</v>
       </c>
       <c r="F8">
-        <v>-1.4262533985321297</v>
+        <v>-1.2502636225693737</v>
       </c>
       <c r="G8">
-        <v>676</v>
+        <v>1899</v>
       </c>
       <c r="H8">
-        <v>-1.2287544337065539</v>
+        <v>-2.2374965606615707</v>
       </c>
       <c r="I8">
-        <v>-1.8086902878003746</v>
-      </c>
-      <c r="J8">
-        <v>2500</v>
-      </c>
-      <c r="K8">
-        <v>-1.5482346882886311</v>
-      </c>
-      <c r="L8">
-        <v>-1.7654335051579311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.9090263411605721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B9">
-        <v>-0.93882748459074683</v>
+        <v>-1.1903100762102397</v>
       </c>
       <c r="C9">
-        <v>1.1228900036429075</v>
+        <v>-1.1342994186790274</v>
       </c>
       <c r="D9">
-        <v>210</v>
+        <v>601</v>
       </c>
       <c r="E9">
-        <v>-1.5302924737773875</v>
+        <v>-2.8588687257798413</v>
       </c>
       <c r="F9">
-        <v>-1.145892703849787</v>
+        <v>-1.059271134810885</v>
       </c>
       <c r="G9">
-        <v>702</v>
+        <v>1976</v>
       </c>
       <c r="H9">
-        <v>-2.1193032792344084</v>
+        <v>-2.549854706856201</v>
       </c>
       <c r="I9">
-        <v>-1.8210018930123963</v>
-      </c>
-      <c r="J9">
-        <v>2601</v>
-      </c>
-      <c r="K9">
-        <v>-2.273791888219256</v>
-      </c>
-      <c r="L9">
-        <v>-1.9040132254790754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.8614063609146319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B10">
-        <v>-0.93341132198049925</v>
+        <v>-1.9926553274110632</v>
       </c>
       <c r="C10">
-        <v>1.2731189159818417</v>
+        <v>-0.41901066225380534</v>
       </c>
       <c r="D10">
+        <v>645</v>
+      </c>
+      <c r="E10">
+        <v>-2.8821173380098828</v>
+      </c>
+      <c r="F10">
+        <v>-0.9750514774297776</v>
+      </c>
+      <c r="G10">
+        <v>2053</v>
+      </c>
+      <c r="H10">
+        <v>-2.8525716815830955</v>
+      </c>
+      <c r="I10">
+        <v>-1.7403873752842232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>-1.9149624835838122</v>
+      </c>
+      <c r="C11">
+        <v>0.27026738758925017</v>
+      </c>
+      <c r="D11">
+        <v>689</v>
+      </c>
+      <c r="E11">
+        <v>-2.89559428722524</v>
+      </c>
+      <c r="F11">
+        <v>-0.50265569702550783</v>
+      </c>
+      <c r="G11">
+        <v>2133</v>
+      </c>
+      <c r="H11">
+        <v>-3.1804442910016584</v>
+      </c>
+      <c r="I11">
+        <v>-1.638501388426242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>-1.7982734700566045</v>
+      </c>
+      <c r="C12">
+        <v>0.58786121291499582</v>
+      </c>
+      <c r="D12">
+        <v>736</v>
+      </c>
+      <c r="E12">
+        <v>-2.8902129393051248</v>
+      </c>
+      <c r="F12">
+        <v>-0.31584076074371842</v>
+      </c>
+      <c r="G12">
+        <v>2213</v>
+      </c>
+      <c r="H12">
+        <v>-3.7323165278628947</v>
+      </c>
+      <c r="I12">
+        <v>-1.5500963881677032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>225</v>
       </c>
-      <c r="E10">
-        <v>-1.5276259717596445</v>
-      </c>
-      <c r="F10">
-        <v>-1.0100241188718007</v>
-      </c>
-      <c r="G10">
-        <v>729</v>
-      </c>
-      <c r="H10">
-        <v>-2.0532302602564036</v>
-      </c>
-      <c r="I10">
-        <v>-1.7656402964735762</v>
-      </c>
-      <c r="J10">
-        <v>2704</v>
-      </c>
-      <c r="K10">
-        <v>-1.6354662042301247</v>
-      </c>
-      <c r="L10">
-        <v>-2.042309990670188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>-0.81443234737894754</v>
-      </c>
-      <c r="C11">
-        <v>1.4492969325829057</v>
-      </c>
-      <c r="D11">
-        <v>238</v>
-      </c>
-      <c r="E11">
-        <v>-1.5340118051802314</v>
-      </c>
-      <c r="F11">
-        <v>0.20493636984336772</v>
-      </c>
-      <c r="G11">
-        <v>756</v>
-      </c>
-      <c r="H11">
-        <v>-2.1270399516102936</v>
-      </c>
-      <c r="I11">
-        <v>-1.7304415847623533</v>
-      </c>
-      <c r="J11">
-        <v>2809</v>
-      </c>
-      <c r="K11">
-        <v>-2.7075360909778539</v>
-      </c>
-      <c r="L11">
-        <v>-2.0323475844942154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>-0.78215905308658829</v>
-      </c>
-      <c r="C12">
-        <v>1.4366718709745927</v>
-      </c>
-      <c r="D12">
-        <v>256</v>
-      </c>
-      <c r="E12">
-        <v>-1.5292776931729657</v>
-      </c>
-      <c r="F12">
-        <v>0.31701736349529508</v>
-      </c>
-      <c r="G12">
-        <v>784</v>
-      </c>
-      <c r="H12">
-        <v>-2.1266507720351511</v>
-      </c>
-      <c r="I12">
-        <v>-1.7003729548330837</v>
-      </c>
-      <c r="J12">
-        <v>2916</v>
-      </c>
-      <c r="K12">
-        <v>-2.6851885343709108</v>
-      </c>
-      <c r="L12">
-        <v>-1.9593686642424522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>110</v>
-      </c>
       <c r="B13">
-        <v>-0.17957166386040468</v>
+        <v>-1.6743980273685781</v>
       </c>
       <c r="C13">
-        <v>1.8480267043025564</v>
+        <v>0.76434155427786266</v>
       </c>
       <c r="D13">
-        <v>272</v>
+        <v>783</v>
       </c>
       <c r="E13">
-        <v>-1.5318137364229385</v>
+        <v>-2.8802332854930537</v>
       </c>
       <c r="F13">
-        <v>0.32669400928126469</v>
+        <v>-0.33121197232728516</v>
       </c>
       <c r="G13">
-        <v>812</v>
+        <v>2296</v>
       </c>
       <c r="H13">
-        <v>-2.1280357618200911</v>
+        <v>-3.8124743565049313</v>
       </c>
       <c r="I13">
-        <v>-1.6088582194298962</v>
-      </c>
-      <c r="J13">
-        <v>3025</v>
-      </c>
-      <c r="K13">
-        <v>-2.7250078423823592</v>
-      </c>
-      <c r="L13">
-        <v>-1.7697428472802073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.5180403359764747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="B14">
-        <v>-9.1107331601180966E-2</v>
+        <v>-1.4945646863317781</v>
       </c>
       <c r="C14">
-        <v>1.818354652705225</v>
+        <v>1.2701550687877949</v>
       </c>
       <c r="D14">
-        <v>289</v>
+        <v>833</v>
       </c>
       <c r="E14">
-        <v>-1.5344377909876978</v>
+        <v>-2.872343506465771</v>
       </c>
       <c r="F14">
-        <v>0.35441500423917233</v>
+        <v>-0.5199625779929129</v>
       </c>
       <c r="G14">
-        <v>841</v>
+        <v>2379</v>
       </c>
       <c r="H14">
-        <v>-2.128061023701481</v>
+        <v>-3.8125706290459358</v>
       </c>
       <c r="I14">
-        <v>-1.5558290755077162</v>
-      </c>
-      <c r="J14">
-        <v>3136</v>
-      </c>
-      <c r="K14">
-        <v>-2.7263864804603797</v>
-      </c>
-      <c r="L14">
-        <v>-1.9236959866739873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.43052730030957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="B15">
-        <v>-6.9020337189081737E-2</v>
+        <v>-1.4278846501355231</v>
       </c>
       <c r="C15">
-        <v>1.8672601171031182</v>
+        <v>1.3588786296078488</v>
       </c>
       <c r="D15">
-        <v>324</v>
+        <v>883</v>
       </c>
       <c r="E15">
-        <v>-1.5276154745289632</v>
+        <v>-2.2527351326369076</v>
       </c>
       <c r="F15">
-        <v>0.29815740395968438</v>
+        <v>-6.9178145272692879E-2</v>
       </c>
       <c r="G15">
-        <v>870</v>
+        <v>2465</v>
       </c>
       <c r="H15">
-        <v>-2.1279242372213947</v>
+        <v>-3.8128142828038696</v>
       </c>
       <c r="I15">
-        <v>-1.0331575116225662</v>
-      </c>
-      <c r="J15">
-        <v>3249</v>
-      </c>
-      <c r="K15">
-        <v>-2.7271942504817619</v>
-      </c>
-      <c r="L15">
-        <v>-2.0532123220343808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.3685714638903159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="B16">
-        <v>-3.7841364094104196E-3</v>
+        <v>-0.82626286247040992</v>
       </c>
       <c r="C16">
-        <v>1.2966961343825374</v>
+        <v>1.7574260235702581</v>
       </c>
       <c r="D16">
-        <v>361</v>
+        <v>936</v>
       </c>
       <c r="E16">
-        <v>-1.5052442857574668</v>
+        <v>-2.0967509841704577</v>
       </c>
       <c r="F16">
-        <v>0.51576053567577052</v>
+        <v>7.9801924398432339E-2</v>
       </c>
       <c r="G16">
-        <v>900</v>
+        <v>2551</v>
       </c>
       <c r="H16">
-        <v>-2.1277439944812575</v>
+        <v>-3.8045525286226969</v>
       </c>
       <c r="I16">
-        <v>-0.89282300574825779</v>
-      </c>
-      <c r="J16">
-        <v>3364</v>
-      </c>
-      <c r="K16">
-        <v>-2.7276765601571022</v>
-      </c>
-      <c r="L16">
-        <v>-1.8862161741124877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.4074884931492129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="B17">
-        <v>-1.9136938213338216E-4</v>
+        <v>-0.74025678549832152</v>
       </c>
       <c r="C17">
-        <v>0.62900747136083102</v>
+        <v>2.0266701604617792</v>
       </c>
       <c r="D17">
-        <v>400</v>
+        <v>1045</v>
       </c>
       <c r="E17">
-        <v>-1.1088620700933154</v>
+        <v>-1.7255957689006918</v>
       </c>
       <c r="F17">
-        <v>1.5544049174365318</v>
+        <v>0.46528072722644437</v>
       </c>
       <c r="G17">
-        <v>930</v>
+        <v>2640</v>
       </c>
       <c r="H17">
-        <v>-2.1264357222989854</v>
+        <v>-3.7964137381714882</v>
       </c>
       <c r="I17">
-        <v>-0.71832693406939463</v>
-      </c>
-      <c r="J17">
-        <v>3481</v>
-      </c>
-      <c r="K17">
-        <v>-2.7279760974251857</v>
-      </c>
-      <c r="L17">
-        <v>-1.7232295858241755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.4538424296716652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>481</v>
+      </c>
+      <c r="B18">
+        <v>-0.42295876900241153</v>
+      </c>
+      <c r="C18">
+        <v>4.2079439627641211</v>
+      </c>
       <c r="D18">
-        <v>441</v>
+        <v>1160</v>
       </c>
       <c r="E18">
-        <v>-0.49567804170026658</v>
+        <v>-1.7215238856556785</v>
       </c>
       <c r="F18">
-        <v>1.878528466985609</v>
+        <v>0.3803840050733282</v>
       </c>
       <c r="G18">
-        <v>961</v>
+        <v>2729</v>
       </c>
       <c r="H18">
-        <v>-2.1251406722838651</v>
+        <v>-3.7948968398596059</v>
       </c>
       <c r="I18">
-        <v>-0.62162716888821801</v>
-      </c>
-      <c r="J18">
-        <v>3600</v>
-      </c>
-      <c r="K18">
-        <v>-2.7281364201105287</v>
-      </c>
-      <c r="L18">
-        <v>-1.6643178778898426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.1131000408930258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>560</v>
+      </c>
+      <c r="B19">
+        <v>-0.23555829377587437</v>
+      </c>
+      <c r="C19">
+        <v>6.7209061093758615</v>
+      </c>
       <c r="D19">
-        <v>484</v>
+        <v>1281</v>
       </c>
       <c r="E19">
-        <v>-0.2551038089101238</v>
+        <v>-9.9680202097322743E-2</v>
       </c>
       <c r="F19">
-        <v>1.9426921312054555</v>
+        <v>3.9765853931092949</v>
       </c>
       <c r="G19">
-        <v>992</v>
+        <v>2821</v>
       </c>
       <c r="H19">
-        <v>-2.1258268829785516</v>
+        <v>-3.7932370810444218</v>
       </c>
       <c r="I19">
-        <v>-0.61155093788151016</v>
-      </c>
-      <c r="J19">
-        <v>3721</v>
-      </c>
-      <c r="K19">
-        <v>-2.7281669345115147</v>
-      </c>
-      <c r="L19">
-        <v>-1.6438425223575057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-0.98652423306865344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>645</v>
+      </c>
+      <c r="B20">
+        <v>-0.23449800468583049</v>
+      </c>
+      <c r="C20">
+        <v>5.9806836796841871</v>
+      </c>
       <c r="D20">
-        <v>529</v>
+        <v>1408</v>
       </c>
       <c r="E20">
-        <v>-0.17428087931108668</v>
+        <v>-1.7493674876777117</v>
       </c>
       <c r="F20">
-        <v>1.9313445958527129</v>
+        <v>0.8023077539014396</v>
       </c>
       <c r="G20">
-        <v>1024</v>
+        <v>2913</v>
       </c>
       <c r="H20">
-        <v>-2.1265028507684067</v>
+        <v>-3.7859414239504359</v>
       </c>
       <c r="I20">
-        <v>-0.6203977911501406</v>
-      </c>
-      <c r="J20">
-        <v>3844</v>
-      </c>
-      <c r="K20">
-        <v>-2.727968360643704</v>
-      </c>
-      <c r="L20">
-        <v>-1.643777857941944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.0959157883146067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>736</v>
+      </c>
+      <c r="B21">
+        <v>-0.23449796617327606</v>
+      </c>
+      <c r="C21">
+        <v>6.516302243198103</v>
+      </c>
       <c r="D21">
-        <v>576</v>
+        <v>1541</v>
       </c>
       <c r="E21">
-        <v>-0.23220299861497928</v>
+        <v>1.178002146906268</v>
       </c>
       <c r="F21">
-        <v>1.9246464205471248</v>
+        <v>6.5629749515449918</v>
       </c>
       <c r="G21">
-        <v>1056</v>
+        <v>3008</v>
       </c>
       <c r="H21">
-        <v>-2.1275546538526124</v>
+        <v>-3.7788917253119938</v>
       </c>
       <c r="I21">
-        <v>-0.63029525919741092</v>
-      </c>
-      <c r="J21">
-        <v>3969</v>
-      </c>
-      <c r="K21">
-        <v>-2.7267355700177753</v>
-      </c>
-      <c r="L21">
-        <v>-1.6493683782771635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.3000863493679276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>833</v>
+      </c>
+      <c r="B22">
+        <v>-0.23449795455641828</v>
+      </c>
+      <c r="C22">
+        <v>6.1884293518220259</v>
+      </c>
       <c r="D22">
-        <v>625</v>
+        <v>1680</v>
       </c>
       <c r="E22">
-        <v>-4.1674973977661768E-2</v>
+        <v>-1.7155679581023542</v>
       </c>
       <c r="F22">
-        <v>1.7671231595911394</v>
+        <v>1.488700970372453</v>
       </c>
       <c r="G22">
-        <v>1089</v>
+        <v>3103</v>
       </c>
       <c r="H22">
-        <v>-2.1286239208692024</v>
+        <v>-3.6930194705192805</v>
       </c>
       <c r="I22">
-        <v>-0.64050008772901668</v>
-      </c>
-      <c r="J22">
-        <v>4096</v>
-      </c>
-      <c r="K22">
-        <v>-2.7273707371168352</v>
-      </c>
-      <c r="L22">
-        <v>-1.6573061466599386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.2464308308561234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>936</v>
+      </c>
+      <c r="B23">
+        <v>-0.23449764507785276</v>
+      </c>
+      <c r="C23">
+        <v>9.1404923941761531</v>
+      </c>
       <c r="D23">
-        <v>676</v>
+        <v>1825</v>
       </c>
       <c r="E23">
-        <v>-5.4450424490179498E-2</v>
+        <v>1.027903930466836</v>
       </c>
       <c r="F23">
-        <v>1.8306947375031257</v>
+        <v>8.6505021673121441</v>
       </c>
       <c r="G23">
-        <v>1122</v>
+        <v>3201</v>
       </c>
       <c r="H23">
-        <v>-2.1287188401060244</v>
+        <v>-3.6322535186597</v>
       </c>
       <c r="I23">
-        <v>-0.65447846979445978</v>
-      </c>
-      <c r="J23">
-        <v>4225</v>
-      </c>
-      <c r="K23">
-        <v>-2.7283401337405722</v>
-      </c>
-      <c r="L23">
-        <v>-1.6653561345707824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-1.2208954601023934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>1045</v>
+      </c>
+      <c r="B24">
+        <v>-0.23451764483199344</v>
+      </c>
+      <c r="C24">
+        <v>8.74456305095711</v>
+      </c>
       <c r="D24">
-        <v>729</v>
+        <v>1976</v>
       </c>
       <c r="E24">
-        <v>-2.3578562354068536E-2</v>
+        <v>-1.6094362513209224</v>
       </c>
       <c r="F24">
-        <v>1.6719619068968801</v>
+        <v>4.0380920822557718</v>
       </c>
       <c r="G24">
-        <v>1156</v>
+        <v>3299</v>
       </c>
       <c r="H24">
-        <v>-2.1287652599519173</v>
+        <v>-2.679542852978352</v>
       </c>
       <c r="I24">
-        <v>-0.66300998046610204</v>
-      </c>
-      <c r="J24">
-        <v>4356</v>
-      </c>
-      <c r="K24">
-        <v>-2.7288471346509615</v>
-      </c>
-      <c r="L24">
-        <v>-1.6285951064302804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-3.2422193886045739E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>1160</v>
+      </c>
+      <c r="B25">
+        <v>-0.2344941398843676</v>
+      </c>
+      <c r="C25">
+        <v>9.4924667435535799</v>
+      </c>
       <c r="D25">
-        <v>784</v>
+        <v>2133</v>
       </c>
       <c r="E25">
-        <v>-1.3054210475355344E-2</v>
+        <v>-1.5715879772627401</v>
       </c>
       <c r="F25">
-        <v>1.5606098311901357</v>
+        <v>5.5014985341843676</v>
       </c>
       <c r="G25">
-        <v>1225</v>
+        <v>3400</v>
       </c>
       <c r="H25">
-        <v>-2.128362768658389</v>
+        <v>-2.5281137011910246</v>
       </c>
       <c r="I25">
-        <v>-0.68494277684995419</v>
-      </c>
-      <c r="J25">
-        <v>4489</v>
-      </c>
-      <c r="K25">
-        <v>-2.7291472937938925</v>
-      </c>
-      <c r="L25">
-        <v>-1.619627090752201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1172417573232248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>1281</v>
+      </c>
+      <c r="B26">
+        <v>-0.23497611159651355</v>
+      </c>
+      <c r="C26">
+        <v>9.804314248203525</v>
+      </c>
+      <c r="D26">
+        <v>2296</v>
+      </c>
+      <c r="E26">
+        <v>-1.5516036245768003</v>
+      </c>
+      <c r="F26">
+        <v>6.3936929788345047</v>
+      </c>
       <c r="G26">
-        <v>1296</v>
+        <v>3501</v>
       </c>
       <c r="H26">
-        <v>-2.1239667612906863</v>
+        <v>-2.4250728198911804</v>
       </c>
       <c r="I26">
-        <v>-0.59276410761306098</v>
-      </c>
-      <c r="J26">
-        <v>4624</v>
-      </c>
-      <c r="K26">
-        <v>-2.7277360145950968</v>
-      </c>
-      <c r="L26">
-        <v>-1.601440532725382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.25088877155406436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27">
+        <v>2465</v>
+      </c>
+      <c r="E27">
+        <v>-1.5515731543203368</v>
+      </c>
+      <c r="F27">
+        <v>6.6542512593811534</v>
+      </c>
       <c r="G27">
-        <v>1369</v>
+        <v>3605</v>
       </c>
       <c r="H27">
-        <v>-2.1179428272645575</v>
+        <v>-2.3257989795213856</v>
       </c>
       <c r="I27">
-        <v>-2.7498563590852461E-2</v>
-      </c>
-      <c r="J27">
-        <v>4761</v>
-      </c>
-      <c r="K27">
-        <v>-2.7271285038119024</v>
-      </c>
-      <c r="L27">
-        <v>-1.6002712052554742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.33308275795898001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="D28">
+        <v>2640</v>
+      </c>
+      <c r="E28">
+        <v>-1.5517126137543176</v>
+      </c>
+      <c r="F28">
+        <v>7.5220609938847618</v>
+      </c>
       <c r="G28">
-        <v>1444</v>
+        <v>3816</v>
       </c>
       <c r="H28">
-        <v>-2.0979583756101894</v>
+        <v>-2.326971547640782</v>
       </c>
       <c r="I28">
-        <v>0.42357651851645001</v>
-      </c>
-      <c r="J28">
-        <v>4900</v>
-      </c>
-      <c r="K28">
-        <v>-2.7265531334971551</v>
-      </c>
-      <c r="L28">
-        <v>-1.5090349351416912</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.40281095434109493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29">
+        <v>2821</v>
+      </c>
+      <c r="E29">
+        <v>-1.5518510498478955</v>
+      </c>
+      <c r="F29">
+        <v>8.0973280662793456</v>
+      </c>
       <c r="G29">
-        <v>1521</v>
+        <v>4033</v>
       </c>
       <c r="H29">
-        <v>-1.8787471901066759</v>
+        <v>-2.3316952393117272</v>
       </c>
       <c r="I29">
-        <v>1.1558168104248496</v>
-      </c>
-      <c r="J29">
-        <v>5041</v>
-      </c>
-      <c r="K29">
-        <v>-2.7257287342173848</v>
-      </c>
-      <c r="L29">
-        <v>-1.0534887566141391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.43229447009109001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="G30">
-        <v>1600</v>
+        <v>4256</v>
       </c>
       <c r="H30">
-        <v>-1.4904811243192111</v>
+        <v>-2.328462515928134</v>
       </c>
       <c r="I30">
-        <v>1.465527592708298</v>
-      </c>
-      <c r="J30">
-        <v>5184</v>
-      </c>
-      <c r="K30">
-        <v>-2.7241261679409048</v>
-      </c>
-      <c r="L30">
-        <v>-0.54712753018995985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.49562847299009472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="G31">
-        <v>1681</v>
+        <v>4485</v>
       </c>
       <c r="H31">
-        <v>-0.90345805527677914</v>
+        <v>-2.3810445801636</v>
       </c>
       <c r="I31">
-        <v>1.7826591771987848</v>
-      </c>
-      <c r="J31">
-        <v>5329</v>
-      </c>
-      <c r="K31">
-        <v>-2.7209666058870163</v>
-      </c>
-      <c r="L31">
-        <v>-0.23408097255637789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.40219802636367807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="G32">
-        <v>1764</v>
+        <v>4720</v>
       </c>
       <c r="H32">
-        <v>-0.83481982693315904</v>
+        <v>-2.360489301424864</v>
       </c>
       <c r="I32">
-        <v>1.8027564638195728</v>
-      </c>
-      <c r="J32">
-        <v>5476</v>
-      </c>
-      <c r="K32">
-        <v>-2.718643151342357</v>
-      </c>
-      <c r="L32">
-        <v>-0.41956394804067121</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.31221563865211149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="G33">
-        <v>1849</v>
+        <v>4961</v>
       </c>
       <c r="H33">
-        <v>-0.57606889744389678</v>
+        <v>3.1695102951655361E-2</v>
       </c>
       <c r="I33">
-        <v>1.9146745093170185</v>
-      </c>
-      <c r="J33">
-        <v>5625</v>
-      </c>
-      <c r="K33">
-        <v>-2.7112020230141858</v>
-      </c>
-      <c r="L33">
-        <v>-0.11638184360269574</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
+        <v>4.1065353247221879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="G34">
-        <v>1936</v>
+        <v>5208</v>
       </c>
       <c r="H34">
-        <v>-0.48160090819672019</v>
+        <v>-2.3826202011863535</v>
       </c>
       <c r="I34">
-        <v>1.9166207995879814</v>
-      </c>
-      <c r="J34">
-        <v>5776</v>
-      </c>
-      <c r="K34">
-        <v>-2.6817020434833618</v>
-      </c>
-      <c r="L34">
-        <v>0.34413779189739407</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.39862563146793023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="G35">
-        <v>2025</v>
+        <v>5461</v>
       </c>
       <c r="H35">
-        <v>-0.46820591213648455</v>
+        <v>-2.4053525729233978</v>
       </c>
       <c r="I35">
-        <v>1.9312900490746772</v>
-      </c>
-      <c r="J35">
-        <v>5929</v>
-      </c>
-      <c r="K35">
-        <v>-2.5899572741140195</v>
-      </c>
-      <c r="L35">
-        <v>0.67345384076824732</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.41643572666956147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="G36">
-        <v>2116</v>
+        <v>5720</v>
       </c>
       <c r="H36">
-        <v>-0.40617152019515268</v>
+        <v>-2.3474238869513258</v>
       </c>
       <c r="I36">
-        <v>1.9469886538758965</v>
-      </c>
-      <c r="J36">
-        <v>6084</v>
-      </c>
-      <c r="K36">
-        <v>-2.3549407996230602</v>
-      </c>
-      <c r="L36">
-        <v>0.978071527607703</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.41426844754432901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="G37">
-        <v>2209</v>
+        <v>5985</v>
       </c>
       <c r="H37">
-        <v>-0.35142717047743288</v>
+        <v>1.2830870294107732</v>
       </c>
       <c r="I37">
-        <v>1.9570642529038869</v>
-      </c>
-      <c r="J37">
-        <v>6241</v>
-      </c>
-      <c r="K37">
-        <v>-2.1579099493321059</v>
-      </c>
-      <c r="L37">
-        <v>1.1295891438299839</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
+        <v>5.6847244661837379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="G38">
-        <v>2304</v>
+        <v>6256</v>
       </c>
       <c r="H38">
-        <v>-0.40920943215083255</v>
+        <v>-2.3188293812156635</v>
       </c>
       <c r="I38">
-        <v>1.911837412781457</v>
-      </c>
-      <c r="J38">
-        <v>6400</v>
-      </c>
-      <c r="K38">
-        <v>-1.9040129869924878</v>
-      </c>
-      <c r="L38">
-        <v>1.2926908366736252</v>
-      </c>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.47391253372219838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="G39">
-        <v>2401</v>
+        <v>6533</v>
       </c>
       <c r="H39">
-        <v>-0.15869429060676857</v>
+        <v>-2.3186184853255778</v>
       </c>
       <c r="I39">
-        <v>1.9469321944130857</v>
-      </c>
-      <c r="J39">
-        <v>6561</v>
-      </c>
-      <c r="K39">
-        <v>-1.4450597092077637</v>
-      </c>
-      <c r="L39">
-        <v>1.543757445146434</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.79721456543868252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="G40">
-        <v>2500</v>
+        <v>6816</v>
       </c>
       <c r="H40">
-        <v>-0.26319511355285885</v>
+        <v>-2.3186808888839687</v>
       </c>
       <c r="I40">
-        <v>1.9669680831120775</v>
-      </c>
-      <c r="J40">
-        <v>6724</v>
-      </c>
-      <c r="K40">
-        <v>-1.5072788168221014</v>
-      </c>
-      <c r="L40">
-        <v>1.506169774466517</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
+        <v>0.34679872590075983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="G41">
-        <v>2601</v>
+        <v>7105</v>
       </c>
       <c r="H41">
-        <v>-0.17352909718177734</v>
+        <v>-0.75541203703904425</v>
       </c>
       <c r="I41">
-        <v>1.9587274385633608</v>
-      </c>
-      <c r="J41">
-        <v>6889</v>
-      </c>
-      <c r="K41">
-        <v>-1.3596140505555265</v>
-      </c>
-      <c r="L41">
-        <v>1.5764826244561505</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
+        <v>5.3751567171160204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="G42">
-        <v>2704</v>
+        <v>7400</v>
       </c>
       <c r="H42">
-        <v>-0.14216209632656288</v>
+        <v>-2.3180054222659368</v>
       </c>
       <c r="I42">
-        <v>1.9435956275209072</v>
-      </c>
-      <c r="J42">
-        <v>7056</v>
-      </c>
-      <c r="K42">
-        <v>-1.2389233504848318</v>
-      </c>
-      <c r="L42">
-        <v>1.6314664245362229</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.2">
+        <v>3.5487474790917068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="G43">
-        <v>2809</v>
+        <v>7701</v>
       </c>
       <c r="H43">
-        <v>-0.11601722569039433</v>
+        <v>-2.3165669975019525</v>
       </c>
       <c r="I43">
-        <v>1.9231770587717447</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G44">
-        <v>2916</v>
-      </c>
-      <c r="H44">
-        <v>-9.2704172043732005E-2</v>
-      </c>
-      <c r="I44">
-        <v>1.8952973827800099</v>
-      </c>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G45">
-        <v>3025</v>
-      </c>
-      <c r="H45">
-        <v>-7.5947433608976961E-2</v>
-      </c>
-      <c r="I45">
-        <v>1.8661241749077981</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G46">
-        <v>3136</v>
-      </c>
-      <c r="H46">
-        <v>-6.0963757493524597E-2</v>
-      </c>
-      <c r="I46">
-        <v>1.8346422530790949</v>
+        <v>3.0014567112554276</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,11 +2507,2166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E46D136-4DED-41EF-B358-503D583E9178}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>31.069881776188364</v>
+      </c>
+      <c r="C3">
+        <v>15.167139229807235</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>10.571132401659247</v>
+      </c>
+      <c r="F3">
+        <v>4.6124098341663862</v>
+      </c>
+      <c r="G3">
+        <v>529</v>
+      </c>
+      <c r="H3">
+        <v>5.7947422871256347</v>
+      </c>
+      <c r="I3">
+        <v>1.3236630118353834</v>
+      </c>
+      <c r="J3">
+        <v>2025</v>
+      </c>
+      <c r="K3">
+        <v>21.703801734939514</v>
+      </c>
+      <c r="L3">
+        <v>10.494826539482068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>5.4725168364633845</v>
+      </c>
+      <c r="C4">
+        <v>2.3250496155219991</v>
+      </c>
+      <c r="D4">
+        <v>144</v>
+      </c>
+      <c r="E4">
+        <v>3.9361542261981439</v>
+      </c>
+      <c r="F4">
+        <v>0.48835137682441926</v>
+      </c>
+      <c r="G4">
+        <v>576</v>
+      </c>
+      <c r="H4">
+        <v>3.2524627427913284</v>
+      </c>
+      <c r="I4">
+        <v>-0.19524134804008811</v>
+      </c>
+      <c r="J4">
+        <v>2116</v>
+      </c>
+      <c r="K4">
+        <v>5.4994326196324064</v>
+      </c>
+      <c r="L4">
+        <v>0.797109453541054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>0.56346804379504145</v>
+      </c>
+      <c r="C5">
+        <v>0.84340096933020836</v>
+      </c>
+      <c r="D5">
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>0.98433486032124351</v>
+      </c>
+      <c r="F5">
+        <v>-0.35840339263638482</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>1.1265530102715113</v>
+      </c>
+      <c r="I5">
+        <v>-1.094223282467095</v>
+      </c>
+      <c r="J5">
+        <v>2209</v>
+      </c>
+      <c r="K5">
+        <v>4.1608690922239244</v>
+      </c>
+      <c r="L5">
+        <v>7.6468447066517703E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0.63380802128452629</v>
+      </c>
+      <c r="C6">
+        <v>0.48517044066401133</v>
+      </c>
+      <c r="D6">
+        <v>169</v>
+      </c>
+      <c r="E6">
+        <v>0.56920412739504578</v>
+      </c>
+      <c r="F6">
+        <v>-0.95837854318515447</v>
+      </c>
+      <c r="G6">
+        <v>625</v>
+      </c>
+      <c r="H6">
+        <v>6.1615548899240716E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.4620129780405624</v>
+      </c>
+      <c r="J6">
+        <v>2304</v>
+      </c>
+      <c r="K6">
+        <v>1.6810503383212292</v>
+      </c>
+      <c r="L6">
+        <v>-0.71353487893196543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>-0.94369219719600195</v>
+      </c>
+      <c r="C7">
+        <v>0.56303728311127599</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>-1.509533687770882</v>
+      </c>
+      <c r="F7">
+        <v>-1.1136987978529009</v>
+      </c>
+      <c r="G7">
+        <v>650</v>
+      </c>
+      <c r="H7">
+        <v>-0.83582632068618767</v>
+      </c>
+      <c r="I7">
+        <v>-1.7731902331387419</v>
+      </c>
+      <c r="J7">
+        <v>2401</v>
+      </c>
+      <c r="K7">
+        <v>-0.42150482449988341</v>
+      </c>
+      <c r="L7">
+        <v>-1.8652911573173159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>-0.9446476710811712</v>
+      </c>
+      <c r="C8">
+        <v>0.71000196510157976</v>
+      </c>
+      <c r="D8">
+        <v>196</v>
+      </c>
+      <c r="E8">
+        <v>-1.4185200327076175</v>
+      </c>
+      <c r="F8">
+        <v>-1.4262533985321297</v>
+      </c>
+      <c r="G8">
+        <v>676</v>
+      </c>
+      <c r="H8">
+        <v>-1.2287544337065539</v>
+      </c>
+      <c r="I8">
+        <v>-1.8086902878003746</v>
+      </c>
+      <c r="J8">
+        <v>2500</v>
+      </c>
+      <c r="K8">
+        <v>-1.5482346882886311</v>
+      </c>
+      <c r="L8">
+        <v>-1.7654335051579311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>-0.93882748459074683</v>
+      </c>
+      <c r="C9">
+        <v>1.1228900036429075</v>
+      </c>
+      <c r="D9">
+        <v>210</v>
+      </c>
+      <c r="E9">
+        <v>-1.5302924737773875</v>
+      </c>
+      <c r="F9">
+        <v>-1.145892703849787</v>
+      </c>
+      <c r="G9">
+        <v>702</v>
+      </c>
+      <c r="H9">
+        <v>-2.1193032792344084</v>
+      </c>
+      <c r="I9">
+        <v>-1.8210018930123963</v>
+      </c>
+      <c r="J9">
+        <v>2601</v>
+      </c>
+      <c r="K9">
+        <v>-2.273791888219256</v>
+      </c>
+      <c r="L9">
+        <v>-1.9040132254790754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>-0.93341132198049925</v>
+      </c>
+      <c r="C10">
+        <v>1.2731189159818417</v>
+      </c>
+      <c r="D10">
+        <v>225</v>
+      </c>
+      <c r="E10">
+        <v>-1.5276259717596445</v>
+      </c>
+      <c r="F10">
+        <v>-1.0100241188718007</v>
+      </c>
+      <c r="G10">
+        <v>729</v>
+      </c>
+      <c r="H10">
+        <v>-2.0532302602564036</v>
+      </c>
+      <c r="I10">
+        <v>-1.7656402964735762</v>
+      </c>
+      <c r="J10">
+        <v>2704</v>
+      </c>
+      <c r="K10">
+        <v>-1.6354662042301247</v>
+      </c>
+      <c r="L10">
+        <v>-2.042309990670188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>-0.81443234737894754</v>
+      </c>
+      <c r="C11">
+        <v>1.4492969325829057</v>
+      </c>
+      <c r="D11">
+        <v>238</v>
+      </c>
+      <c r="E11">
+        <v>-1.5340118051802314</v>
+      </c>
+      <c r="F11">
+        <v>0.20493636984336772</v>
+      </c>
+      <c r="G11">
+        <v>756</v>
+      </c>
+      <c r="H11">
+        <v>-2.1270399516102936</v>
+      </c>
+      <c r="I11">
+        <v>-1.7304415847623533</v>
+      </c>
+      <c r="J11">
+        <v>2809</v>
+      </c>
+      <c r="K11">
+        <v>-2.7075360909778539</v>
+      </c>
+      <c r="L11">
+        <v>-2.0323475844942154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>-0.78215905308658829</v>
+      </c>
+      <c r="C12">
+        <v>1.4366718709745927</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>-1.5292776931729657</v>
+      </c>
+      <c r="F12">
+        <v>0.31701736349529508</v>
+      </c>
+      <c r="G12">
+        <v>784</v>
+      </c>
+      <c r="H12">
+        <v>-2.1266507720351511</v>
+      </c>
+      <c r="I12">
+        <v>-1.7003729548330837</v>
+      </c>
+      <c r="J12">
+        <v>2916</v>
+      </c>
+      <c r="K12">
+        <v>-2.6851885343709108</v>
+      </c>
+      <c r="L12">
+        <v>-1.9593686642424522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>-0.17957166386040468</v>
+      </c>
+      <c r="C13">
+        <v>1.8480267043025564</v>
+      </c>
+      <c r="D13">
+        <v>272</v>
+      </c>
+      <c r="E13">
+        <v>-1.5318137364229385</v>
+      </c>
+      <c r="F13">
+        <v>0.32669400928126469</v>
+      </c>
+      <c r="G13">
+        <v>812</v>
+      </c>
+      <c r="H13">
+        <v>-2.1280357618200911</v>
+      </c>
+      <c r="I13">
+        <v>-1.6088582194298962</v>
+      </c>
+      <c r="J13">
+        <v>3025</v>
+      </c>
+      <c r="K13">
+        <v>-2.7250078423823592</v>
+      </c>
+      <c r="L13">
+        <v>-1.7697428472802073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <v>-9.1107331601180966E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.818354652705225</v>
+      </c>
+      <c r="D14">
+        <v>289</v>
+      </c>
+      <c r="E14">
+        <v>-1.5344377909876978</v>
+      </c>
+      <c r="F14">
+        <v>0.35441500423917233</v>
+      </c>
+      <c r="G14">
+        <v>841</v>
+      </c>
+      <c r="H14">
+        <v>-2.128061023701481</v>
+      </c>
+      <c r="I14">
+        <v>-1.5558290755077162</v>
+      </c>
+      <c r="J14">
+        <v>3136</v>
+      </c>
+      <c r="K14">
+        <v>-2.7263864804603797</v>
+      </c>
+      <c r="L14">
+        <v>-1.9236959866739873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>-6.9020337189081737E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.8672601171031182</v>
+      </c>
+      <c r="D15">
+        <v>324</v>
+      </c>
+      <c r="E15">
+        <v>-1.5276154745289632</v>
+      </c>
+      <c r="F15">
+        <v>0.29815740395968438</v>
+      </c>
+      <c r="G15">
+        <v>870</v>
+      </c>
+      <c r="H15">
+        <v>-2.1279242372213947</v>
+      </c>
+      <c r="I15">
+        <v>-1.0331575116225662</v>
+      </c>
+      <c r="J15">
+        <v>3249</v>
+      </c>
+      <c r="K15">
+        <v>-2.7271942504817619</v>
+      </c>
+      <c r="L15">
+        <v>-2.0532123220343808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <v>-3.7841364094104196E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.2966961343825374</v>
+      </c>
+      <c r="D16">
+        <v>361</v>
+      </c>
+      <c r="E16">
+        <v>-1.5052442857574668</v>
+      </c>
+      <c r="F16">
+        <v>0.51576053567577052</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
+        <v>-2.1277439944812575</v>
+      </c>
+      <c r="I16">
+        <v>-0.89282300574825779</v>
+      </c>
+      <c r="J16">
+        <v>3364</v>
+      </c>
+      <c r="K16">
+        <v>-2.7276765601571022</v>
+      </c>
+      <c r="L16">
+        <v>-1.8862161741124877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>196</v>
+      </c>
+      <c r="B17">
+        <v>-1.9136938213338216E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.62900747136083102</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <v>-1.1088620700933154</v>
+      </c>
+      <c r="F17">
+        <v>1.5544049174365318</v>
+      </c>
+      <c r="G17">
+        <v>930</v>
+      </c>
+      <c r="H17">
+        <v>-2.1264357222989854</v>
+      </c>
+      <c r="I17">
+        <v>-0.71832693406939463</v>
+      </c>
+      <c r="J17">
+        <v>3481</v>
+      </c>
+      <c r="K17">
+        <v>-2.7279760974251857</v>
+      </c>
+      <c r="L17">
+        <v>-1.7232295858241755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="D18">
+        <v>441</v>
+      </c>
+      <c r="E18">
+        <v>-0.49567804170026658</v>
+      </c>
+      <c r="F18">
+        <v>1.878528466985609</v>
+      </c>
+      <c r="G18">
+        <v>961</v>
+      </c>
+      <c r="H18">
+        <v>-2.1251406722838651</v>
+      </c>
+      <c r="I18">
+        <v>-0.62162716888821801</v>
+      </c>
+      <c r="J18">
+        <v>3600</v>
+      </c>
+      <c r="K18">
+        <v>-2.7281364201105287</v>
+      </c>
+      <c r="L18">
+        <v>-1.6643178778898426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19">
+        <v>484</v>
+      </c>
+      <c r="E19">
+        <v>-0.2551038089101238</v>
+      </c>
+      <c r="F19">
+        <v>1.9426921312054555</v>
+      </c>
+      <c r="G19">
+        <v>992</v>
+      </c>
+      <c r="H19">
+        <v>-2.1258268829785516</v>
+      </c>
+      <c r="I19">
+        <v>-0.61155093788151016</v>
+      </c>
+      <c r="J19">
+        <v>3721</v>
+      </c>
+      <c r="K19">
+        <v>-2.7281669345115147</v>
+      </c>
+      <c r="L19">
+        <v>-1.6438425223575057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="D20">
+        <v>529</v>
+      </c>
+      <c r="E20">
+        <v>-0.17428087931108668</v>
+      </c>
+      <c r="F20">
+        <v>1.9313445958527129</v>
+      </c>
+      <c r="G20">
+        <v>1024</v>
+      </c>
+      <c r="H20">
+        <v>-2.1265028507684067</v>
+      </c>
+      <c r="I20">
+        <v>-0.6203977911501406</v>
+      </c>
+      <c r="J20">
+        <v>3844</v>
+      </c>
+      <c r="K20">
+        <v>-2.727968360643704</v>
+      </c>
+      <c r="L20">
+        <v>-1.643777857941944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="D21">
+        <v>576</v>
+      </c>
+      <c r="E21">
+        <v>-0.23220299861497928</v>
+      </c>
+      <c r="F21">
+        <v>1.9246464205471248</v>
+      </c>
+      <c r="G21">
+        <v>1056</v>
+      </c>
+      <c r="H21">
+        <v>-2.1275546538526124</v>
+      </c>
+      <c r="I21">
+        <v>-0.63029525919741092</v>
+      </c>
+      <c r="J21">
+        <v>3969</v>
+      </c>
+      <c r="K21">
+        <v>-2.7267355700177753</v>
+      </c>
+      <c r="L21">
+        <v>-1.6493683782771635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22">
+        <v>625</v>
+      </c>
+      <c r="E22">
+        <v>-4.1674973977661768E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.7671231595911394</v>
+      </c>
+      <c r="G22">
+        <v>1089</v>
+      </c>
+      <c r="H22">
+        <v>-2.1286239208692024</v>
+      </c>
+      <c r="I22">
+        <v>-0.64050008772901668</v>
+      </c>
+      <c r="J22">
+        <v>4096</v>
+      </c>
+      <c r="K22">
+        <v>-2.7273707371168352</v>
+      </c>
+      <c r="L22">
+        <v>-1.6573061466599386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23">
+        <v>676</v>
+      </c>
+      <c r="E23">
+        <v>-5.4450424490179498E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.8306947375031257</v>
+      </c>
+      <c r="G23">
+        <v>1122</v>
+      </c>
+      <c r="H23">
+        <v>-2.1287188401060244</v>
+      </c>
+      <c r="I23">
+        <v>-0.65447846979445978</v>
+      </c>
+      <c r="J23">
+        <v>4225</v>
+      </c>
+      <c r="K23">
+        <v>-2.7283401337405722</v>
+      </c>
+      <c r="L23">
+        <v>-1.6653561345707824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24">
+        <v>729</v>
+      </c>
+      <c r="E24">
+        <v>-2.3578562354068536E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.6719619068968801</v>
+      </c>
+      <c r="G24">
+        <v>1156</v>
+      </c>
+      <c r="H24">
+        <v>-2.1287652599519173</v>
+      </c>
+      <c r="I24">
+        <v>-0.66300998046610204</v>
+      </c>
+      <c r="J24">
+        <v>4356</v>
+      </c>
+      <c r="K24">
+        <v>-2.7288471346509615</v>
+      </c>
+      <c r="L24">
+        <v>-1.6285951064302804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="D25">
+        <v>784</v>
+      </c>
+      <c r="E25">
+        <v>-1.3054210475355344E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.5606098311901357</v>
+      </c>
+      <c r="G25">
+        <v>1225</v>
+      </c>
+      <c r="H25">
+        <v>-2.128362768658389</v>
+      </c>
+      <c r="I25">
+        <v>-0.68494277684995419</v>
+      </c>
+      <c r="J25">
+        <v>4489</v>
+      </c>
+      <c r="K25">
+        <v>-2.7291472937938925</v>
+      </c>
+      <c r="L25">
+        <v>-1.619627090752201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="G26">
+        <v>1296</v>
+      </c>
+      <c r="H26">
+        <v>-2.1239667612906863</v>
+      </c>
+      <c r="I26">
+        <v>-0.59276410761306098</v>
+      </c>
+      <c r="J26">
+        <v>4624</v>
+      </c>
+      <c r="K26">
+        <v>-2.7277360145950968</v>
+      </c>
+      <c r="L26">
+        <v>-1.601440532725382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="G27">
+        <v>1369</v>
+      </c>
+      <c r="H27">
+        <v>-2.1179428272645575</v>
+      </c>
+      <c r="I27">
+        <v>-2.7498563590852461E-2</v>
+      </c>
+      <c r="J27">
+        <v>4761</v>
+      </c>
+      <c r="K27">
+        <v>-2.7271285038119024</v>
+      </c>
+      <c r="L27">
+        <v>-1.6002712052554742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="G28">
+        <v>1444</v>
+      </c>
+      <c r="H28">
+        <v>-2.0979583756101894</v>
+      </c>
+      <c r="I28">
+        <v>0.42357651851645001</v>
+      </c>
+      <c r="J28">
+        <v>4900</v>
+      </c>
+      <c r="K28">
+        <v>-2.7265531334971551</v>
+      </c>
+      <c r="L28">
+        <v>-1.5090349351416912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="G29">
+        <v>1521</v>
+      </c>
+      <c r="H29">
+        <v>-1.8787471901066759</v>
+      </c>
+      <c r="I29">
+        <v>1.1558168104248496</v>
+      </c>
+      <c r="J29">
+        <v>5041</v>
+      </c>
+      <c r="K29">
+        <v>-2.7257287342173848</v>
+      </c>
+      <c r="L29">
+        <v>-1.0534887566141391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="G30">
+        <v>1600</v>
+      </c>
+      <c r="H30">
+        <v>-1.4904811243192111</v>
+      </c>
+      <c r="I30">
+        <v>1.465527592708298</v>
+      </c>
+      <c r="J30">
+        <v>5184</v>
+      </c>
+      <c r="K30">
+        <v>-2.7241261679409048</v>
+      </c>
+      <c r="L30">
+        <v>-0.54712753018995985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="G31">
+        <v>1681</v>
+      </c>
+      <c r="H31">
+        <v>-0.90345805527677914</v>
+      </c>
+      <c r="I31">
+        <v>1.7826591771987848</v>
+      </c>
+      <c r="J31">
+        <v>5329</v>
+      </c>
+      <c r="K31">
+        <v>-2.7209666058870163</v>
+      </c>
+      <c r="L31">
+        <v>-0.23408097255637789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="G32">
+        <v>1764</v>
+      </c>
+      <c r="H32">
+        <v>-0.83481982693315904</v>
+      </c>
+      <c r="I32">
+        <v>1.8027564638195728</v>
+      </c>
+      <c r="J32">
+        <v>5476</v>
+      </c>
+      <c r="K32">
+        <v>-2.718643151342357</v>
+      </c>
+      <c r="L32">
+        <v>-0.41956394804067121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="G33">
+        <v>1849</v>
+      </c>
+      <c r="H33">
+        <v>-0.57606889744389678</v>
+      </c>
+      <c r="I33">
+        <v>1.9146745093170185</v>
+      </c>
+      <c r="J33">
+        <v>5625</v>
+      </c>
+      <c r="K33">
+        <v>-2.7112020230141858</v>
+      </c>
+      <c r="L33">
+        <v>-0.11638184360269574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="G34">
+        <v>1936</v>
+      </c>
+      <c r="H34">
+        <v>-0.48160090819672019</v>
+      </c>
+      <c r="I34">
+        <v>1.9166207995879814</v>
+      </c>
+      <c r="J34">
+        <v>5776</v>
+      </c>
+      <c r="K34">
+        <v>-2.6817020434833618</v>
+      </c>
+      <c r="L34">
+        <v>0.34413779189739407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="G35">
+        <v>2025</v>
+      </c>
+      <c r="H35">
+        <v>-0.46820591213648455</v>
+      </c>
+      <c r="I35">
+        <v>1.9312900490746772</v>
+      </c>
+      <c r="J35">
+        <v>5929</v>
+      </c>
+      <c r="K35">
+        <v>-2.5899572741140195</v>
+      </c>
+      <c r="L35">
+        <v>0.67345384076824732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="G36">
+        <v>2116</v>
+      </c>
+      <c r="H36">
+        <v>-0.40617152019515268</v>
+      </c>
+      <c r="I36">
+        <v>1.9469886538758965</v>
+      </c>
+      <c r="J36">
+        <v>6084</v>
+      </c>
+      <c r="K36">
+        <v>-2.3549407996230602</v>
+      </c>
+      <c r="L36">
+        <v>0.978071527607703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="G37">
+        <v>2209</v>
+      </c>
+      <c r="H37">
+        <v>-0.35142717047743288</v>
+      </c>
+      <c r="I37">
+        <v>1.9570642529038869</v>
+      </c>
+      <c r="J37">
+        <v>6241</v>
+      </c>
+      <c r="K37">
+        <v>-2.1579099493321059</v>
+      </c>
+      <c r="L37">
+        <v>1.1295891438299839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="G38">
+        <v>2304</v>
+      </c>
+      <c r="H38">
+        <v>-0.40920943215083255</v>
+      </c>
+      <c r="I38">
+        <v>1.911837412781457</v>
+      </c>
+      <c r="J38">
+        <v>6400</v>
+      </c>
+      <c r="K38">
+        <v>-1.9040129869924878</v>
+      </c>
+      <c r="L38">
+        <v>1.2926908366736252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="G39">
+        <v>2401</v>
+      </c>
+      <c r="H39">
+        <v>-0.15869429060676857</v>
+      </c>
+      <c r="I39">
+        <v>1.9469321944130857</v>
+      </c>
+      <c r="J39">
+        <v>6561</v>
+      </c>
+      <c r="K39">
+        <v>-1.4450597092077637</v>
+      </c>
+      <c r="L39">
+        <v>1.543757445146434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40">
+        <v>2500</v>
+      </c>
+      <c r="H40">
+        <v>-0.26319511355285885</v>
+      </c>
+      <c r="I40">
+        <v>1.9669680831120775</v>
+      </c>
+      <c r="J40">
+        <v>6724</v>
+      </c>
+      <c r="K40">
+        <v>-1.5072788168221014</v>
+      </c>
+      <c r="L40">
+        <v>1.506169774466517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41">
+        <v>2601</v>
+      </c>
+      <c r="H41">
+        <v>-0.17352909718177734</v>
+      </c>
+      <c r="I41">
+        <v>1.9587274385633608</v>
+      </c>
+      <c r="J41">
+        <v>6889</v>
+      </c>
+      <c r="K41">
+        <v>-1.3596140505555265</v>
+      </c>
+      <c r="L41">
+        <v>1.5764826244561505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42">
+        <v>2704</v>
+      </c>
+      <c r="H42">
+        <v>-0.14216209632656288</v>
+      </c>
+      <c r="I42">
+        <v>1.9435956275209072</v>
+      </c>
+      <c r="J42">
+        <v>7056</v>
+      </c>
+      <c r="K42">
+        <v>-1.2389233504848318</v>
+      </c>
+      <c r="L42">
+        <v>1.6314664245362229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43">
+        <v>2809</v>
+      </c>
+      <c r="H43">
+        <v>-0.11601722569039433</v>
+      </c>
+      <c r="I43">
+        <v>1.9231770587717447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="G44">
+        <v>2916</v>
+      </c>
+      <c r="H44">
+        <v>-9.2704172043732005E-2</v>
+      </c>
+      <c r="I44">
+        <v>1.8952973827800099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="G45">
+        <v>3025</v>
+      </c>
+      <c r="H45">
+        <v>-7.5947433608976961E-2</v>
+      </c>
+      <c r="I45">
+        <v>1.8661241749077981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="G46">
+        <v>3136</v>
+      </c>
+      <c r="H46">
+        <v>-6.0963757493524597E-2</v>
+      </c>
+      <c r="I46">
+        <v>1.8346422530790949</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B74FF6-FCF0-4F02-86BD-C967C12AE585}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>23.751362479929035</v>
+      </c>
+      <c r="C3">
+        <v>7.3690837004261311</v>
+      </c>
+      <c r="D3">
+        <v>529</v>
+      </c>
+      <c r="E3">
+        <v>3.0486517234570445</v>
+      </c>
+      <c r="F3">
+        <v>0.10648192366047164</v>
+      </c>
+      <c r="G3">
+        <v>1849</v>
+      </c>
+      <c r="H3">
+        <v>32.114701556133504</v>
+      </c>
+      <c r="I3">
+        <v>9.8314252351345104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>17.891870474813729</v>
+      </c>
+      <c r="C4">
+        <v>7.3496952362406329</v>
+      </c>
+      <c r="D4">
+        <v>575</v>
+      </c>
+      <c r="E4">
+        <v>-0.46794128646554489</v>
+      </c>
+      <c r="F4">
+        <v>-1.1972807794209575</v>
+      </c>
+      <c r="G4">
+        <v>2025</v>
+      </c>
+      <c r="H4">
+        <v>8.9627557650410079</v>
+      </c>
+      <c r="I4">
+        <v>0.8526787227331879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>19.750408391951513</v>
+      </c>
+      <c r="C5">
+        <v>5.9972336564158653</v>
+      </c>
+      <c r="D5">
+        <v>625</v>
+      </c>
+      <c r="E5">
+        <v>-2.0792067697827692</v>
+      </c>
+      <c r="F5">
+        <v>-1.695198156914361</v>
+      </c>
+      <c r="G5">
+        <v>2209</v>
+      </c>
+      <c r="H5">
+        <v>0.81738264577485775</v>
+      </c>
+      <c r="I5">
+        <v>-0.98858666216660984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>15.920576262225429</v>
+      </c>
+      <c r="C6">
+        <v>2.3821037022722762</v>
+      </c>
+      <c r="D6">
+        <v>675</v>
+      </c>
+      <c r="E6">
+        <v>-2.6481960054584452</v>
+      </c>
+      <c r="F6">
+        <v>-1.2422487713553776</v>
+      </c>
+      <c r="G6">
+        <v>2401</v>
+      </c>
+      <c r="H6">
+        <v>-2.8702777760675158</v>
+      </c>
+      <c r="I6">
+        <v>-2.1638043680918222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>10.517744109621862</v>
+      </c>
+      <c r="C7">
+        <v>0.79380189722962091</v>
+      </c>
+      <c r="D7">
+        <v>729</v>
+      </c>
+      <c r="E7">
+        <v>-2.4665131412293921</v>
+      </c>
+      <c r="F7">
+        <v>-0.7893905351803302</v>
+      </c>
+      <c r="G7">
+        <v>2499</v>
+      </c>
+      <c r="H7">
+        <v>-3.2765197157566623</v>
+      </c>
+      <c r="I7">
+        <v>-1.9279982436821061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>0.63937408269991136</v>
+      </c>
+      <c r="C8">
+        <v>-0.11299117652042792</v>
+      </c>
+      <c r="D8">
+        <v>783</v>
+      </c>
+      <c r="E8">
+        <v>-2.733122072706001</v>
+      </c>
+      <c r="F8">
+        <v>-0.49292306448541362</v>
+      </c>
+      <c r="G8">
+        <v>2601</v>
+      </c>
+      <c r="H8">
+        <v>-3.1334310581299185</v>
+      </c>
+      <c r="I8">
+        <v>-1.6884028101160173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>-1.209807330564842</v>
+      </c>
+      <c r="C9">
+        <v>-0.88117901074333072</v>
+      </c>
+      <c r="D9">
+        <v>841</v>
+      </c>
+      <c r="E9">
+        <v>-2.6589422969752037</v>
+      </c>
+      <c r="F9">
+        <v>-0.21801824011678342</v>
+      </c>
+      <c r="G9">
+        <v>2703</v>
+      </c>
+      <c r="H9">
+        <v>-3.1745987876862736</v>
+      </c>
+      <c r="I9">
+        <v>-1.3376443433760188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>195</v>
+      </c>
+      <c r="B10">
+        <v>-1.9105834419246608</v>
+      </c>
+      <c r="C10">
+        <v>-0.32933063812681229</v>
+      </c>
+      <c r="D10">
+        <v>899</v>
+      </c>
+      <c r="E10">
+        <v>-2.2271551867145583</v>
+      </c>
+      <c r="F10">
+        <v>0.67036817735558818</v>
+      </c>
+      <c r="G10">
+        <v>2809</v>
+      </c>
+      <c r="H10">
+        <v>1.8916846674079353</v>
+      </c>
+      <c r="I10">
+        <v>3.6825783942629635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>225</v>
+      </c>
+      <c r="B11">
+        <v>-1.8192464590586535</v>
+      </c>
+      <c r="C11">
+        <v>0.45599158214689967</v>
+      </c>
+      <c r="D11">
+        <v>961</v>
+      </c>
+      <c r="E11">
+        <v>-2.5207229869980599</v>
+      </c>
+      <c r="F11">
+        <v>0.33230966628517494</v>
+      </c>
+      <c r="G11">
+        <v>2915</v>
+      </c>
+      <c r="H11">
+        <v>-3.0813657846305844</v>
+      </c>
+      <c r="I11">
+        <v>-0.64698591748232859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>255</v>
+      </c>
+      <c r="B12">
+        <v>-1.6734881514164532</v>
+      </c>
+      <c r="C12">
+        <v>0.87337382837909172</v>
+      </c>
+      <c r="D12">
+        <v>1023</v>
+      </c>
+      <c r="E12">
+        <v>-2.4486633153638411</v>
+      </c>
+      <c r="F12">
+        <v>0.48858146516795758</v>
+      </c>
+      <c r="G12">
+        <v>3025</v>
+      </c>
+      <c r="H12">
+        <v>-3.2183585319985522</v>
+      </c>
+      <c r="I12">
+        <v>-0.56038271686989083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>289</v>
+      </c>
+      <c r="B13">
+        <v>-1.6399084124235792</v>
+      </c>
+      <c r="C13">
+        <v>0.78942461638322803</v>
+      </c>
+      <c r="D13">
+        <v>1089</v>
+      </c>
+      <c r="E13">
+        <v>-2.6079567017258669</v>
+      </c>
+      <c r="F13">
+        <v>0.1683671981342644</v>
+      </c>
+      <c r="G13">
+        <v>3135</v>
+      </c>
+      <c r="H13">
+        <v>-3.2150197802117382</v>
+      </c>
+      <c r="I13">
+        <v>-0.4015877237598931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>323</v>
+      </c>
+      <c r="B14">
+        <v>-1.098788096484195</v>
+      </c>
+      <c r="C14">
+        <v>1.477757170239147</v>
+      </c>
+      <c r="D14">
+        <v>1155</v>
+      </c>
+      <c r="E14">
+        <v>-1.6588533375104915</v>
+      </c>
+      <c r="F14">
+        <v>1.4405658678603079</v>
+      </c>
+      <c r="G14">
+        <v>3249</v>
+      </c>
+      <c r="H14">
+        <v>-3.3374073008658862</v>
+      </c>
+      <c r="I14">
+        <v>-0.66244328389560592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>361</v>
+      </c>
+      <c r="B15">
+        <v>-0.97220548005373009</v>
+      </c>
+      <c r="C15">
+        <v>1.6379384487507205</v>
+      </c>
+      <c r="D15">
+        <v>1225</v>
+      </c>
+      <c r="E15">
+        <v>-1.8761869806025697</v>
+      </c>
+      <c r="F15">
+        <v>0.92057522838985228</v>
+      </c>
+      <c r="G15">
+        <v>3363</v>
+      </c>
+      <c r="H15">
+        <v>-2.1669250502742945</v>
+      </c>
+      <c r="I15">
+        <v>0.99038302627790686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>441</v>
+      </c>
+      <c r="B16">
+        <v>-0.30052289598753357</v>
+      </c>
+      <c r="C16">
+        <v>2.1327380356179702</v>
+      </c>
+      <c r="D16">
+        <v>1295</v>
+      </c>
+      <c r="E16">
+        <v>-8.5748644654751016E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.4133197440400584</v>
+      </c>
+      <c r="G16">
+        <v>3481</v>
+      </c>
+      <c r="H16">
+        <v>-3.5536365062237767</v>
+      </c>
+      <c r="I16">
+        <v>-0.508648712499845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>529</v>
+      </c>
+      <c r="B17">
+        <v>-0.21886518379788597</v>
+      </c>
+      <c r="C17">
+        <v>2.2925069662264193</v>
+      </c>
+      <c r="D17">
+        <v>1369</v>
+      </c>
+      <c r="E17">
+        <v>-1.4295213076761493</v>
+      </c>
+      <c r="F17">
+        <v>1.1979440912473138</v>
+      </c>
+      <c r="G17">
+        <v>3599</v>
+      </c>
+      <c r="H17">
+        <v>-1.3470745797143313</v>
+      </c>
+      <c r="I17">
+        <v>1.940843934774944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>625</v>
+      </c>
+      <c r="B18">
+        <v>-4.2675519701843724E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.438532497247218</v>
+      </c>
+      <c r="D18">
+        <v>1521</v>
+      </c>
+      <c r="E18">
+        <v>-1.4143203072060999</v>
+      </c>
+      <c r="F18">
+        <v>1.3643153809833539</v>
+      </c>
+      <c r="G18">
+        <v>3721</v>
+      </c>
+      <c r="H18">
+        <v>-3.2545756087155393</v>
+      </c>
+      <c r="I18">
+        <v>-3.1834080186533421E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>729</v>
+      </c>
+      <c r="B19">
+        <v>-2.7147774039183184E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.4038199554425095</v>
+      </c>
+      <c r="D19">
+        <v>1681</v>
+      </c>
+      <c r="E19">
+        <v>-1.3285721985928802</v>
+      </c>
+      <c r="F19">
+        <v>1.5304525178109829</v>
+      </c>
+      <c r="G19">
+        <v>3843</v>
+      </c>
+      <c r="H19">
+        <v>1.9821152555845176</v>
+      </c>
+      <c r="I19">
+        <v>5.3628118863421426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>841</v>
+      </c>
+      <c r="B20">
+        <v>-2.6570252697405792E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.0249962439510591</v>
+      </c>
+      <c r="D20">
+        <v>1849</v>
+      </c>
+      <c r="E20">
+        <v>-1.3239089608155392</v>
+      </c>
+      <c r="F20">
+        <v>1.6406199085209066</v>
+      </c>
+      <c r="G20">
+        <v>3969</v>
+      </c>
+      <c r="H20">
+        <v>-3.3366906505716618</v>
+      </c>
+      <c r="I20">
+        <v>-9.8382746520965392E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="D21">
+        <v>2025</v>
+      </c>
+      <c r="E21">
+        <v>-1.2355784723078715</v>
+      </c>
+      <c r="F21">
+        <v>1.7521226618590089</v>
+      </c>
+      <c r="G21">
+        <v>4095</v>
+      </c>
+      <c r="H21">
+        <v>-1.6688553015906673</v>
+      </c>
+      <c r="I21">
+        <v>1.7678312167683983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22">
+        <v>2209</v>
+      </c>
+      <c r="E22">
+        <v>-0.91700727217654809</v>
+      </c>
+      <c r="F22">
+        <v>1.9848487263997165</v>
+      </c>
+      <c r="G22">
+        <v>4225</v>
+      </c>
+      <c r="H22">
+        <v>-3.0064021225132622</v>
+      </c>
+      <c r="I22">
+        <v>-4.856915706621269E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23">
+        <v>2401</v>
+      </c>
+      <c r="E23">
+        <v>-0.50399163441532469</v>
+      </c>
+      <c r="F23">
+        <v>2.9249885893056078</v>
+      </c>
+      <c r="G23">
+        <v>4355</v>
+      </c>
+      <c r="H23">
+        <v>-1.6928182170332553</v>
+      </c>
+      <c r="I23">
+        <v>1.8683415987915448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24">
+        <v>2601</v>
+      </c>
+      <c r="E24">
+        <v>-0.286819917507115</v>
+      </c>
+      <c r="F24">
+        <v>2.7210220887986383</v>
+      </c>
+      <c r="G24">
+        <v>4489</v>
+      </c>
+      <c r="H24">
+        <v>-2.4163301014284313</v>
+      </c>
+      <c r="I24">
+        <v>0.53371369249936584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="D25">
+        <v>2809</v>
+      </c>
+      <c r="E25">
+        <v>-0.27462871291705027</v>
+      </c>
+      <c r="F25">
+        <v>2.981578921926348</v>
+      </c>
+      <c r="G25">
+        <v>4623</v>
+      </c>
+      <c r="H25">
+        <v>-1.5060401649221766</v>
+      </c>
+      <c r="I25">
+        <v>2.2102781902184661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="D26">
+        <v>3025</v>
+      </c>
+      <c r="E26">
+        <v>-0.27431855605643662</v>
+      </c>
+      <c r="F26">
+        <v>4.5022370269645098</v>
+      </c>
+      <c r="G26">
+        <v>4761</v>
+      </c>
+      <c r="H26">
+        <v>-2.1400933358824159</v>
+      </c>
+      <c r="I26">
+        <v>0.58941745149507019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27">
+        <v>3249</v>
+      </c>
+      <c r="E27">
+        <v>-0.27431507087823637</v>
+      </c>
+      <c r="F27">
+        <v>5.3379004859750934</v>
+      </c>
+      <c r="G27">
+        <v>5041</v>
+      </c>
+      <c r="H27">
+        <v>-2.0862941517732194</v>
+      </c>
+      <c r="I27">
+        <v>0.67924831202282632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="D28">
+        <v>3481</v>
+      </c>
+      <c r="E28">
+        <v>-0.27432126709139848</v>
+      </c>
+      <c r="F28">
+        <v>7.3028151039968261</v>
+      </c>
+      <c r="G28">
+        <v>5329</v>
+      </c>
+      <c r="H28">
+        <v>-2.066218626465306</v>
+      </c>
+      <c r="I28">
+        <v>0.68854346459810034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29">
+        <v>3721</v>
+      </c>
+      <c r="E29">
+        <v>-0.27431443695748231</v>
+      </c>
+      <c r="F29">
+        <v>7.5433641325507867</v>
+      </c>
+      <c r="G29">
+        <v>5625</v>
+      </c>
+      <c r="H29">
+        <v>-2.0701970724041616</v>
+      </c>
+      <c r="I29">
+        <v>0.70495938609003006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="G30">
+        <v>5929</v>
+      </c>
+      <c r="H30">
+        <v>-2.2153395487681418</v>
+      </c>
+      <c r="I30">
+        <v>0.74312626264964021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="G31">
+        <v>6241</v>
+      </c>
+      <c r="H31">
+        <v>-2.2905268202011611</v>
+      </c>
+      <c r="I31">
+        <v>0.84892723062343822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="G32">
+        <v>6561</v>
+      </c>
+      <c r="H32">
+        <v>-2.182123046249715</v>
+      </c>
+      <c r="I32">
+        <v>1.1195688604919867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="G33">
+        <v>6889</v>
+      </c>
+      <c r="H33">
+        <v>-2.2687403431102524</v>
+      </c>
+      <c r="I33">
+        <v>1.0477851068127471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="G34">
+        <v>7225</v>
+      </c>
+      <c r="H34">
+        <v>-2.273800915658474</v>
+      </c>
+      <c r="I34">
+        <v>1.014824527050314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="G35">
+        <v>7569</v>
+      </c>
+      <c r="H35">
+        <v>-2.0733903427331564</v>
+      </c>
+      <c r="I35">
+        <v>1.131711120964638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="G36">
+        <v>7921</v>
+      </c>
+      <c r="H36">
+        <v>-2.0303088272294962</v>
+      </c>
+      <c r="I36">
+        <v>0.98328822839868646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="G37">
+        <v>8281</v>
+      </c>
+      <c r="H37">
+        <v>-1.982132430386832</v>
+      </c>
+      <c r="I37">
+        <v>1.1375932566305178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="G38">
+        <v>8649</v>
+      </c>
+      <c r="H38">
+        <v>-1.8646431251792366</v>
+      </c>
+      <c r="I38">
+        <v>1.3790718751298765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="G39">
+        <v>9025</v>
+      </c>
+      <c r="H39">
+        <v>-1.6432932433822267</v>
+      </c>
+      <c r="I39">
+        <v>1.7256021560896642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40">
+        <v>9409</v>
+      </c>
+      <c r="H40">
+        <v>-1.634475571703613</v>
+      </c>
+      <c r="I40">
+        <v>2.3585515524025058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41">
+        <v>9801</v>
+      </c>
+      <c r="H41">
+        <v>-1.0814837481945865</v>
+      </c>
+      <c r="I41">
+        <v>2.3804362766386422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42">
+        <v>10201</v>
+      </c>
+      <c r="H42">
+        <v>-0.99784234597625587</v>
+      </c>
+      <c r="I42">
+        <v>2.6501167190149975</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF110077-1E0C-4FAD-8BB9-607003C0B828}">
-  <dimension ref="D1:K21"/>
+  <dimension ref="D1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,7 +4674,10 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:12">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -2773,19 +4690,22 @@
       <c r="H1">
         <v>1E-3</v>
       </c>
-      <c r="I1">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1">
         <v>0.1</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>0.01</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:12">
       <c r="D2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>-0.90308998699194354</v>
@@ -2800,16 +4720,19 @@
         <v>-7.8946329203154265E-5</v>
       </c>
       <c r="I2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="J2">
         <v>-0.96461839545280825</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.9647471501908923</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-0.93341132198049925</v>
       </c>
     </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:12">
       <c r="E3">
         <v>-1.2041199826559248</v>
       </c>
@@ -2823,16 +4746,19 @@
         <v>-3.5933976414572046E-4</v>
       </c>
       <c r="I3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="J3">
         <v>-1.5352397469866814</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.5359151953379</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-1.5344377909876978</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:12">
       <c r="E4">
         <v>-1.505149978319906</v>
       </c>
@@ -2846,16 +4772,19 @@
         <v>-1.4798240017008951E-3</v>
       </c>
       <c r="I4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="J4">
         <v>-2.1284873093495569</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2.1286683764807242</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-2.1286239208692024</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:12">
       <c r="E5">
         <v>-1.8061799739838871</v>
       </c>
@@ -2869,18 +4798,21 @@
         <v>-5.9179275499514888E-3</v>
       </c>
       <c r="I5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="J5">
         <v>-2.7282765608049364</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-2.7283430570777472</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-2.7283401337405722</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>-0.90308998699194354</v>
@@ -2895,16 +4827,19 @@
         <v>-7.8745651667839963E-5</v>
       </c>
       <c r="I7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="J7">
         <v>-1.1062755874209407</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.095734973366441</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1.1028161648592929</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12">
       <c r="E8">
         <v>-1.2041199826559248</v>
       </c>
@@ -2918,16 +4853,19 @@
         <v>-3.5941833184407112E-4</v>
       </c>
       <c r="I8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="J8">
         <v>-1.6886008655313944</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-1.6763073938169928</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1.6770087514190097</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:12">
       <c r="E9">
         <v>-1.505149978319906</v>
       </c>
@@ -2941,16 +4879,19 @@
         <v>-1.4800262638001117E-3</v>
       </c>
       <c r="I9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="J9">
         <v>-2.2848070079027938</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-2.2722796912020455</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-2.272172372786236</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:12">
       <c r="E10">
         <v>-1.8061799739838871</v>
       </c>
@@ -2964,200 +4905,644 @@
         <v>-5.9182401553819963E-3</v>
       </c>
       <c r="I10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="J10">
         <v>-2.8854458606312416</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-2.872697278096644</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-2.8725205721854938</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="4:12">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="F12">
+        <v>-1.6741463442448339</v>
+      </c>
+      <c r="G12">
+        <v>-0.56766016293801103</v>
+      </c>
+      <c r="H12">
+        <v>-2.6570259073676661E-2</v>
+      </c>
+      <c r="I12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="J12">
+        <v>-1.9556332752144892</v>
+      </c>
+      <c r="K12">
+        <v>-1.8291449208395596</v>
+      </c>
+      <c r="L12">
+        <v>-1.6399103531976451</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="E13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="F13">
+        <v>-2.7048348199190886</v>
+      </c>
+      <c r="G13">
+        <v>-1.3822094939388683</v>
+      </c>
+      <c r="H13">
+        <v>-0.27431355169603666</v>
+      </c>
+      <c r="I13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="J13">
+        <v>-2.8428857438362778</v>
+      </c>
+      <c r="K13">
+        <v>-2.7173942105967135</v>
+      </c>
+      <c r="L13">
+        <v>-2.6079567017258669</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
       <c r="E14">
-        <v>4</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="F14">
-        <v>0.38192350112079265</v>
+        <v>-3.6958326776956607</v>
       </c>
       <c r="G14">
-        <v>6.9198245105225719E-3</v>
+        <v>-2.3566555601024466</v>
       </c>
       <c r="H14">
-        <v>6.9838852741431915E-5</v>
+        <v>-0.97653669064787985</v>
       </c>
       <c r="I14">
-        <v>0.93321314377561515</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="J14">
-        <v>0.95854939518802207</v>
+        <v>-3.7254942099988262</v>
       </c>
       <c r="K14">
-        <v>0.98781609928511083</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+        <v>-3.4266844886531671</v>
+      </c>
+      <c r="L14">
+        <v>-3.0064021225605342</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
       <c r="E15">
-        <v>6</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="F15">
-        <v>0.57775380112677288</v>
+        <v>-4.6324057119210797</v>
       </c>
       <c r="G15">
-        <v>1.5826796651567058E-2</v>
+        <v>-3.4517111208554221</v>
       </c>
       <c r="H15">
-        <v>1.613446025977198E-4</v>
+        <v>-2.0098562922150505</v>
       </c>
       <c r="I15">
-        <v>0.958888587556186</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="J15">
-        <v>0.97347065003663025</v>
+        <v>-4.6040094940534138</v>
       </c>
       <c r="K15">
-        <v>0.98830186765781103</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>0.70437299089315286</v>
-      </c>
-      <c r="G16">
-        <v>2.7996723477423144E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.8939000223840959E-4</v>
-      </c>
-      <c r="I16">
-        <v>0.97564517904997083</v>
-      </c>
-      <c r="J16">
-        <v>0.98933304160449542</v>
-      </c>
-      <c r="K16">
-        <v>0.99947188264114351</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+        <v>-4.400422064637147</v>
+      </c>
+      <c r="L15">
+        <v>-3.7497046063904125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
       <c r="E17">
-        <v>16</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="F17">
-        <v>0.90263924313919974</v>
+        <v>-1.9698535253129543</v>
       </c>
       <c r="G17">
-        <v>0.10318708929373349</v>
+        <v>-1.145388651798839</v>
       </c>
       <c r="H17">
-        <v>1.1663377553156307E-3</v>
+        <v>-0.23449796224513694</v>
       </c>
       <c r="I17">
-        <v>0.99019087655740856</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="J17">
-        <v>0.99678439004330632</v>
+        <v>-2.0450268599054469</v>
       </c>
       <c r="K17">
-        <v>1.0016377111935009</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+        <v>-2.0114116736872769</v>
+      </c>
+      <c r="L17">
+        <v>-1.6743980273685781</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12">
       <c r="E18">
-        <v>24</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="F18">
-        <v>0.95530846361327593</v>
+        <v>-2.9071560426103109</v>
       </c>
       <c r="G18">
-        <v>0.20362064488559917</v>
+        <v>-1.8727367522679041</v>
       </c>
       <c r="H18">
-        <v>2.6240458800344448E-3</v>
+        <v>-1.5515734342976919</v>
       </c>
       <c r="I18">
-        <v>0.99423329644018787</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="J18">
-        <v>0.99899416430595822</v>
+        <v>-2.9299242847851255</v>
       </c>
       <c r="K18">
-        <v>1.0026633324841712</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+        <v>-2.8911835170890394</v>
+      </c>
+      <c r="L18">
+        <v>-2.8723435064653722</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
       <c r="E19">
-        <v>32</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="F19">
-        <v>0.97567997696125364</v>
+        <v>-3.8255361145309053</v>
       </c>
       <c r="G19">
-        <v>0.30923603586988913</v>
+        <v>-2.750818526946643</v>
       </c>
       <c r="H19">
-        <v>4.6568158965981732E-3</v>
+        <v>-2.3097678308830263</v>
       </c>
       <c r="I19">
-        <v>0.99581770336456665</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="J19">
-        <v>0.99976170798899733</v>
+        <v>-3.8159173623301963</v>
       </c>
       <c r="K19">
-        <v>1.003174936361487</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+        <v>-3.7324009264446527</v>
+      </c>
+      <c r="L19">
+        <v>-3.6322535187233509</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12">
       <c r="E20">
-        <v>48</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="F20">
-        <v>0.99097349292893511</v>
+        <v>-4.7332161887569724</v>
       </c>
       <c r="G20">
-        <v>0.49433133036034016</v>
+        <v>-3.8131317834609262</v>
       </c>
       <c r="H20">
-        <v>1.041378239003888E-2</v>
+        <v>-2.940354488054628</v>
       </c>
       <c r="I20">
-        <v>0.99727719847501561</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="J20">
-        <v>1.000427876154157</v>
+        <v>-4.7017148596180078</v>
       </c>
       <c r="K20">
-        <v>1.0034574673422525</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>64</v>
-      </c>
-      <c r="F21">
-        <v>0.99649344416332986</v>
-      </c>
-      <c r="G21">
-        <v>0.62919771849739869</v>
-      </c>
-      <c r="H21">
-        <v>1.8349150626749206E-2</v>
-      </c>
-      <c r="I21">
-        <v>0.99782457314363848</v>
-      </c>
-      <c r="J21">
-        <v>1.0008135014203265</v>
-      </c>
-      <c r="K21">
-        <v>1.0036000111042118</v>
+        <v>-4.6876309748566101</v>
+      </c>
+      <c r="L20">
+        <v>-4.5139842131960162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB6E9F-0BCB-4136-9CD8-6B70B4AA2532}">
+  <dimension ref="A4:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:16">
+      <c r="D4">
+        <v>529</v>
+      </c>
+      <c r="E4">
+        <v>2.9787026179097928</v>
+      </c>
+      <c r="F4">
+        <v>0.47403210991411271</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>28.825865401171246</v>
+      </c>
+      <c r="L4">
+        <v>14.448541496411499</v>
+      </c>
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>27.687614453570692</v>
+      </c>
+      <c r="P4">
+        <v>13.293927749968509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5">
+        <v>21.156406863886552</v>
+      </c>
+      <c r="C5">
+        <v>9.3378851563134777</v>
+      </c>
+      <c r="D5">
+        <v>625</v>
+      </c>
+      <c r="E5">
+        <v>-2.5480854778071973</v>
+      </c>
+      <c r="F5">
+        <v>-1.9227506306217061</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>-1.0964224180682116</v>
+      </c>
+      <c r="L5">
+        <v>-0.7663440695182804</v>
+      </c>
+      <c r="N5">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>-0.88366109679850113</v>
+      </c>
+      <c r="P5">
+        <v>-0.18052601800888787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2209</v>
+      </c>
+      <c r="B6">
+        <v>1.7589325468030423</v>
+      </c>
+      <c r="C6">
+        <v>-0.28955608658991805</v>
+      </c>
+      <c r="D6">
+        <v>729</v>
+      </c>
+      <c r="E6">
+        <v>-2.8275099327513686</v>
+      </c>
+      <c r="F6">
+        <v>-1.5035307240788724</v>
+      </c>
+      <c r="J6">
+        <v>81</v>
+      </c>
+      <c r="K6">
+        <v>-0.2208260644628721</v>
+      </c>
+      <c r="L6">
+        <v>1.6500964762136274</v>
+      </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>-0.23411591255952779</v>
+      </c>
+      <c r="P6">
+        <v>1.9065416953850793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>2401</v>
+      </c>
+      <c r="B7">
+        <v>-3.6128926323613846</v>
+      </c>
+      <c r="C7">
+        <v>-2.3832937962097045</v>
+      </c>
+      <c r="D7">
+        <v>841</v>
+      </c>
+      <c r="E7">
+        <v>-2.7860298164635826</v>
+      </c>
+      <c r="F7">
+        <v>-0.52299049789034757</v>
+      </c>
+      <c r="G7">
+        <v>121</v>
+      </c>
+      <c r="H7">
+        <v>22.138669026447168</v>
+      </c>
+      <c r="I7">
+        <v>10.147141106608663</v>
+      </c>
+      <c r="J7">
+        <v>121</v>
+      </c>
+      <c r="K7">
+        <v>-0.01045802568448109</v>
+      </c>
+      <c r="L7">
+        <v>1.6426889620550735</v>
+      </c>
+      <c r="N7">
+        <v>121</v>
+      </c>
+      <c r="O7">
+        <v>-5.5180784734585285E-3</v>
+      </c>
+      <c r="P7">
+        <v>1.6221146029994371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>2601</v>
+      </c>
+      <c r="B8">
+        <v>-3.7348113590134626</v>
+      </c>
+      <c r="C8">
+        <v>-2.3856126961553685</v>
+      </c>
+      <c r="D8">
+        <v>961</v>
+      </c>
+      <c r="E8">
+        <v>-2.578266197619711</v>
+      </c>
+      <c r="F8">
+        <v>0.28747905646796723</v>
+      </c>
+      <c r="G8">
+        <v>169</v>
+      </c>
+      <c r="H8">
+        <v>-1.6317711039926683</v>
+      </c>
+      <c r="I8">
+        <v>-1.444621192123819</v>
+      </c>
+      <c r="J8">
+        <v>169</v>
+      </c>
+      <c r="K8">
+        <v>-0.0022327773191120103</v>
+      </c>
+      <c r="L8">
+        <v>2.772042423569587</v>
+      </c>
+      <c r="N8">
+        <v>169</v>
+      </c>
+      <c r="O8">
+        <v>-2.2588099191350806E-3</v>
+      </c>
+      <c r="P8">
+        <v>2.3134694365963471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>2809</v>
+      </c>
+      <c r="B9">
+        <v>-3.7340429414925489</v>
+      </c>
+      <c r="C9">
+        <v>-2.0669269096386969</v>
+      </c>
+      <c r="D9">
+        <v>1089</v>
+      </c>
+      <c r="E9">
+        <v>-2.4029676300320486</v>
+      </c>
+      <c r="F9">
+        <v>0.63064523717463428</v>
+      </c>
+      <c r="G9">
+        <v>225</v>
+      </c>
+      <c r="H9">
+        <v>-1.8200901406263135</v>
+      </c>
+      <c r="I9">
+        <v>0.78966329476878561</v>
+      </c>
+      <c r="J9">
+        <v>225</v>
+      </c>
+      <c r="K9">
+        <v>-0.0011905431037368402</v>
+      </c>
+      <c r="L9">
+        <v>3.8100407650371335</v>
+      </c>
+      <c r="N9">
+        <v>225</v>
+      </c>
+      <c r="O9">
+        <v>-1.3266685449815768E-3</v>
+      </c>
+      <c r="P9">
+        <v>5.855576609811223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>3025</v>
+      </c>
+      <c r="B10">
+        <v>-3.7275876406194937</v>
+      </c>
+      <c r="C10">
+        <v>-1.7800851091715439</v>
+      </c>
+      <c r="D10">
+        <v>1225</v>
+      </c>
+      <c r="E10">
+        <v>-0.94883607635346878</v>
+      </c>
+      <c r="F10">
+        <v>1.6398064074085119</v>
+      </c>
+      <c r="G10">
+        <v>289</v>
+      </c>
+      <c r="H10">
+        <v>-1.2552988005518606</v>
+      </c>
+      <c r="I10">
+        <v>1.3001371861533202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>3249</v>
+      </c>
+      <c r="B11">
+        <v>-3.7180406155865033</v>
+      </c>
+      <c r="C11">
+        <v>-1.43161888316371</v>
+      </c>
+      <c r="D11">
+        <v>1369</v>
+      </c>
+      <c r="E11">
+        <v>-0.84350576605922412</v>
+      </c>
+      <c r="F11">
+        <v>1.733855064771568</v>
+      </c>
+      <c r="G11">
+        <v>361</v>
+      </c>
+      <c r="H11">
+        <v>-0.22931482842061013</v>
+      </c>
+      <c r="I11">
+        <v>1.8788680475105868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>3481</v>
+      </c>
+      <c r="B12">
+        <v>-3.6662743644266245</v>
+      </c>
+      <c r="C12">
+        <v>-0.93678220187653427</v>
+      </c>
+      <c r="D12">
+        <v>1521</v>
+      </c>
+      <c r="E12">
+        <v>-0.71746457211812642</v>
+      </c>
+      <c r="F12">
+        <v>1.8893876026266236</v>
+      </c>
+      <c r="G12">
+        <v>441</v>
+      </c>
+      <c r="H12">
+        <v>-0.10240006204733179</v>
+      </c>
+      <c r="I12">
+        <v>2.036974587709778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>3721</v>
+      </c>
+      <c r="B13">
+        <v>-3.5324698938515136</v>
+      </c>
+      <c r="C13">
+        <v>-0.46470148299528063</v>
+      </c>
+      <c r="D13">
+        <v>1681</v>
+      </c>
+      <c r="E13">
+        <v>-0.57868771790351348</v>
+      </c>
+      <c r="F13">
+        <v>2.1000447230375867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>3969</v>
+      </c>
+      <c r="B14">
+        <v>-3.4160198678263112</v>
+      </c>
+      <c r="C14">
+        <v>-3.047382288048877E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>4225</v>
+      </c>
+      <c r="B15">
+        <v>-3.1436087793126415</v>
+      </c>
+      <c r="C15">
+        <v>-2.1264974454968857E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>4489</v>
+      </c>
+      <c r="B16">
+        <v>-1.9637753724192306</v>
+      </c>
+      <c r="C16">
+        <v>1.1759966347296926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>4761</v>
+      </c>
+      <c r="B17">
+        <v>-1.7793257159947846</v>
+      </c>
+      <c r="C17">
+        <v>1.2681222045641589</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/SquarePlate.xlsx
+++ b/xlsx/SquarePlate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913486C-7B6F-483B-810A-63DE6A363607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B8B78-6B98-4B83-8868-1917555E62CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{08DF509F-1897-41AD-8809-58D4B22033D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{08DF509F-1897-41AD-8809-58D4B22033D1}"/>
   </bookViews>
   <sheets>
     <sheet name="quad4" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>16x16</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,7 +460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42</v>
       </c>
@@ -512,7 +512,7 @@
         <v>-1.1096074786017269</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49</v>
       </c>
@@ -550,7 +550,7 @@
         <v>-1.1263322264333586</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>56</v>
       </c>
@@ -588,7 +588,7 @@
         <v>-1.4472666131542307</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
@@ -626,7 +626,7 @@
         <v>-1.5121500777607624</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>72</v>
       </c>
@@ -664,7 +664,7 @@
         <v>-1.5730508250590476</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>81</v>
       </c>
@@ -702,7 +702,7 @@
         <v>-1.7376547660424408</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>90</v>
       </c>
@@ -740,7 +740,7 @@
         <v>-1.861557605498481</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -778,7 +778,7 @@
         <v>-1.9928587968049862</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>110</v>
       </c>
@@ -816,7 +816,7 @@
         <v>-1.9303011165904356</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>121</v>
       </c>
@@ -854,7 +854,7 @@
         <v>-1.8371517321228001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>132</v>
       </c>
@@ -892,7 +892,7 @@
         <v>-1.6257410109923032</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>144</v>
       </c>
@@ -930,7 +930,7 @@
         <v>-1.4933098703750294</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>169</v>
       </c>
@@ -968,7 +968,7 @@
         <v>-1.3951901497295787</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>361</v>
       </c>
@@ -997,7 +997,7 @@
         <v>-1.3857651169698697</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>400</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>-1.4288256510988664</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>441</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>-1.5051352454192939</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>484</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>-1.6118481955436204</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>529</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-1.7634097054033595</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>576</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>-2.008759732474565</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>625</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>-2.0290883525648238</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>676</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>-1.87877118340927</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>2025</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>-1.6932133424580793</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>2116</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>-1.5434716233520527</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G25">
         <v>2209</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>-1.4208519267031416</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>2304</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-1.3071129222615006</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G27">
         <v>2401</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>-1.2114651084854469</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G28">
         <v>2500</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>-0.53569172937433485</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>2601</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>-3.9177762078968729E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="J30">
         <v>5625</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0.32176605447319384</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="J31">
         <v>5776</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.42301787861281226</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="J32">
         <v>5929</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0.66306292469190342</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J33">
         <v>6084</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.78215043077946511</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J34">
         <v>6241</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0.80459607595681282</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J35">
         <v>6400</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0.82735588407034955</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J36">
         <v>6561</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0.9454408666036056</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J37">
         <v>6724</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0.7422132401733933</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J38">
         <v>6889</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.60974243258358418</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J39">
         <v>7056</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.60688787620922213</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J40">
         <v>7225</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0.82711073628117093</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J41">
         <v>7396</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1.10557007236683</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J42">
         <v>7569</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1.3181851408465661</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J43">
         <v>7744</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1.4392963927506406</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J44">
         <v>7921</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1.568967665842665</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J45">
         <v>8100</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1.6760162404070993</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J46">
         <v>8281</v>
       </c>
@@ -1544,8 +1544,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1"/>
@@ -1560,29 +1560,29 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" t="s" s="1">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" t="s" s="1">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" t="s" s="1">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>6.3993983088877462</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>8.6069338328056109</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0.35643324386356462</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>-0.86028832727116411</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>96</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-0.90570109934994358</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>113</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>-1.9090263411605721</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>133</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>-1.8614063609146319</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>153</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>-1.7403873752842232</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>176</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>-1.638501388426242</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>199</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>-1.5500963881677032</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>225</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>-1.5180403359764747</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>251</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>-1.43052730030957</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>280</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>-1.3685714638903159</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>341</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>-1.4074884931492129</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>408</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>-1.4538424296716652</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>481</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>-1.1131000408930258</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>560</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>-0.98652423306865344</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>645</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>-1.0959157883146067</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>736</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>-1.3000863493679276</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>833</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>-1.2464308308561234</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>936</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>-1.2208954601023934</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1045</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>-3.2422193886045739E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1160</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0.1172417573232248</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1281</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0.25088877155406436</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2465</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.33308275795898001</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>2640</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0.40281095434109493</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>2821</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0.43229447009109001</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>4256</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0.49562847299009472</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>4485</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0.40219802636367807</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>4720</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0.31221563865211149</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>4961</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>4.1065353247221879</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>5208</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0.39862563146793023</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>5461</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0.41643572666956147</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>5720</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0.41426844754432901</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>5985</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>5.6847244661837379</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>6256</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.47391253372219838</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>6533</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.79721456543868252</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>6816</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0.34679872590075983</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>7105</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>5.3751567171160204</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>7400</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>3.5487474790917068</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G43">
         <v>7701</v>
       </c>
@@ -2510,14 +2510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E46D136-4DED-41EF-B358-503D583E9178}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1"/>
@@ -2532,29 +2532,29 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" t="s" s="1">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" t="s" s="1">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" t="s" s="1">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>25</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>10.494826539482068</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>36</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0.797109453541054</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>7.6468447066517703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>49</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>-0.71353487893196543</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>56</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>-1.8652911573173159</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>-1.7654335051579311</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>72</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>-1.9040132254790754</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>81</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>-2.042309990670188</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>-2.0323475844942154</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>-1.9593686642424522</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>110</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>-1.7697428472802073</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>121</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>-1.9236959866739873</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>144</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>-2.0532123220343808</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>169</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>-1.8862161741124877</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>196</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>-1.7232295858241755</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>441</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>-1.6643178778898426</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>484</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>-1.6438425223575057</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>529</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>-1.643777857941944</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>576</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>-1.6493683782771635</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>625</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>-1.6573061466599386</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>676</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>-1.6653561345707824</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>729</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>-1.6285951064302804</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>784</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>-1.619627090752201</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>1296</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>-1.601440532725382</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G27">
         <v>1369</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>-1.6002712052554742</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28">
         <v>1444</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>-1.5090349351416912</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>1521</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>-1.0534887566141391</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>1600</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>-0.54712753018995985</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>1681</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>-0.23408097255637789</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>1764</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>-0.41956394804067121</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>1849</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>-0.11638184360269574</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>1936</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.34413779189739407</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>2025</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0.67345384076824732</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>2116</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0.978071527607703</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>2209</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1.1295891438299839</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>2304</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1.2926908366736252</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>2401</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>1.543757445146434</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>2500</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1.506169774466517</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>2601</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>1.5764826244561505</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>2704</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1.6314664245362229</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43">
         <v>2809</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>1.9231770587717447</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G44">
         <v>2916</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1.8952973827800099</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G45">
         <v>3025</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>1.8661241749077981</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46">
         <v>3136</v>
       </c>
@@ -3764,8 +3764,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1"/>
@@ -3780,29 +3780,29 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" t="s" s="1">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" t="s" s="1">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" t="s" s="1">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>9.8314252351345104</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>25</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0.8526787227331879</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>49</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>-0.98858666216660984</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>81</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>-2.1638043680918222</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>121</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>-1.9279982436821061</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>143</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>-1.6884028101160173</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>169</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>-1.3376443433760188</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>195</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>3.6825783942629635</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>225</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>-0.64698591748232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>255</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>-0.56038271686989083</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>289</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>-0.4015877237598931</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>-0.66244328389560592</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>361</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0.99038302627790686</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>441</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>-0.508648712499845</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>529</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1.940843934774944</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>625</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>-3.1834080186533421E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>729</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>5.3628118863421426</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>841</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>-9.8382746520965392E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>2025</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>1.7678312167683983</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>2209</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>-4.856915706621269E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>2401</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1.8683415987915448</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>2601</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0.53371369249936584</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>2809</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>2.2102781902184661</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>3025</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0.58941745149507019</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>3249</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.67924831202282632</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>3481</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0.68854346459810034</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>3721</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.70495938609003006</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>5929</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0.74312626264964021</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>6241</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.84892723062343822</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>6561</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1.1195688604919867</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>6889</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1.0477851068127471</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>7225</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1.014824527050314</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>7569</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>1.131711120964638</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>7921</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0.98328822839868646</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>8281</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1.1375932566305178</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>8649</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>1.3790718751298765</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>9025</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1.7256021560896642</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>9409</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2.3585515524025058</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>9801</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>2.3804362766386422</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>10201</v>
       </c>
@@ -4663,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF110077-1E0C-4FAD-8BB9-607003C0B828}">
-  <dimension ref="D1:L20"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4674,7 +4674,7 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>3</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="4:12">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>-0.93341132198049925</v>
       </c>
     </row>
-    <row r="3" spans="4:12">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E3">
         <v>-1.2041199826559248</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>-1.5344377909876978</v>
       </c>
     </row>
-    <row r="4" spans="4:12">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>-1.505149978319906</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>-2.1286239208692024</v>
       </c>
     </row>
-    <row r="5" spans="4:12">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>-1.8061799739838871</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>-2.7283401337405722</v>
       </c>
     </row>
-    <row r="7" spans="4:12">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>-1.1028161648592929</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>-1.2041199826559248</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>-1.6770087514190097</v>
       </c>
     </row>
-    <row r="9" spans="4:12">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>-1.505149978319906</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>-2.272172372786236</v>
       </c>
     </row>
-    <row r="10" spans="4:12">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>-1.8061799739838871</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>-2.8725205721854938</v>
       </c>
     </row>
-    <row r="12" spans="4:12">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>-1.6399103531976451</v>
       </c>
     </row>
-    <row r="13" spans="4:12">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>-1.2041199826559248</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-2.6079567017258669</v>
       </c>
     </row>
-    <row r="14" spans="4:12">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>-1.505149978319906</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>-3.0064021225605342</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>-1.8061799739838871</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>-3.7497046063904125</v>
       </c>
     </row>
-    <row r="17" spans="4:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>11</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>-1.6743980273685781</v>
       </c>
     </row>
-    <row r="18" spans="4:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>-1.2041199826559248</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>-2.8723435064653722</v>
       </c>
     </row>
-    <row r="19" spans="4:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>-1.505149978319906</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>-3.6322535187233509</v>
       </c>
     </row>
-    <row r="20" spans="4:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>-1.8061799739838871</v>
       </c>
@@ -5129,6 +5129,38 @@
       </c>
       <c r="L20">
         <v>-4.5139842131960162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>-0.88070193589811796</v>
+      </c>
+      <c r="C26">
+        <v>-0.248705587062067</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>-1.5217675392074601</v>
+      </c>
+      <c r="C27">
+        <v>-0.86564286498082799</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>-2.1278396000035298</v>
+      </c>
+      <c r="C28">
+        <v>-1.5632543825554699</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>-2.7283247081678201</v>
+      </c>
+      <c r="C29">
+        <v>-2.22933757226857</v>
       </c>
     </row>
   </sheetData>
@@ -5142,13 +5174,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB6E9F-0BCB-4136-9CD8-6B70B4AA2532}">
   <dimension ref="A4:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>529</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>13.293927749968509</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -5203,7 +5235,7 @@
         <v>-1.0964224180682116</v>
       </c>
       <c r="L5">
-        <v>-0.7663440695182804</v>
+        <v>-0.76634406951828038</v>
       </c>
       <c r="N5">
         <v>49</v>
@@ -5215,7 +5247,7 @@
         <v>-0.18052601800888787</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2209</v>
       </c>
@@ -5238,7 +5270,7 @@
         <v>81</v>
       </c>
       <c r="K6">
-        <v>-0.2208260644628721</v>
+        <v>-0.22082606446287209</v>
       </c>
       <c r="L6">
         <v>1.6500964762136274</v>
@@ -5253,7 +5285,7 @@
         <v>1.9065416953850793</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2401</v>
       </c>
@@ -5285,7 +5317,7 @@
         <v>121</v>
       </c>
       <c r="K7">
-        <v>-0.01045802568448109</v>
+        <v>-1.0458025684481091E-2</v>
       </c>
       <c r="L7">
         <v>1.6426889620550735</v>
@@ -5300,7 +5332,7 @@
         <v>1.6221146029994371</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2601</v>
       </c>
@@ -5332,10 +5364,10 @@
         <v>169</v>
       </c>
       <c r="K8">
-        <v>-0.0022327773191120103</v>
+        <v>-2.2327773191120103E-3</v>
       </c>
       <c r="L8">
-        <v>2.772042423569587</v>
+        <v>2.7720424235695869</v>
       </c>
       <c r="N8">
         <v>169</v>
@@ -5347,7 +5379,7 @@
         <v>2.3134694365963471</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2809</v>
       </c>
@@ -5379,7 +5411,7 @@
         <v>225</v>
       </c>
       <c r="K9">
-        <v>-0.0011905431037368402</v>
+        <v>-1.1905431037368402E-3</v>
       </c>
       <c r="L9">
         <v>3.8100407650371335</v>
@@ -5394,7 +5426,7 @@
         <v>5.855576609811223</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3025</v>
       </c>
@@ -5423,7 +5455,7 @@
         <v>1.3001371861533202</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3249</v>
       </c>
@@ -5452,7 +5484,7 @@
         <v>1.8788680475105868</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3481</v>
       </c>
@@ -5481,7 +5513,7 @@
         <v>2.036974587709778</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3721</v>
       </c>
@@ -5501,7 +5533,7 @@
         <v>2.1000447230375867</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3969</v>
       </c>
@@ -5512,7 +5544,7 @@
         <v>-3.047382288048877E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4225</v>
       </c>
@@ -5523,7 +5555,7 @@
         <v>-2.1264974454968857E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4489</v>
       </c>
@@ -5534,7 +5566,7 @@
         <v>1.1759966347296926</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4761</v>
       </c>
